--- a/Reports/Report.xlsx
+++ b/Reports/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="130">
   <si>
     <t>Дата проверки</t>
   </si>
@@ -79,322 +79,331 @@
     <t>Привет, у этого кабеля всё плохо. Он сломан Сломанно A6 и вообще Vnh Как быв не понятно ткак сейчас тработает а это текст для теста</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>HI_XP1_9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_10</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>HI_XP1_27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>HI_XP1_29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>HI_XP1_30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>HI_XP1_39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DIGN_XP1_40</t>
+  </si>
+  <si>
+    <t>Измерение 1</t>
+  </si>
+  <si>
+    <t>Измеренное значение</t>
+  </si>
+  <si>
+    <t>Пороги</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Измерение 2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Аналоговый</t>
+  </si>
+  <si>
+    <t>ADC_XP1_32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ADC_XP1_34</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_11</t>
+  </si>
+  <si>
+    <t>U, В</t>
+  </si>
+  <si>
+    <t>I, A</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Выход</t>
+  </si>
+  <si>
+    <t>HSO_XP1_16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>HSO_XP1_19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>HSO_XP1_20</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>HSO_XP2_2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HSO_XP2_3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HSO_XP2_5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>HSO_XP2_6</t>
+  </si>
+  <si>
+    <t>HSO_XP2_8</t>
+  </si>
+  <si>
+    <t>HSO_XP2_11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>HSO_XP2_15</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HSO_XP3_3</t>
+  </si>
+  <si>
+    <t>HSO_XP3_6</t>
+  </si>
+  <si>
+    <t>HSO_XP3_8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_1</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_13</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_15</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_18</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>HSO_XP1_6</t>
+  </si>
+  <si>
+    <t>HSO_XP1_14</t>
+  </si>
+  <si>
+    <t>HSO_XP1_15</t>
+  </si>
+  <si>
+    <t>HSO_XP1_17</t>
+  </si>
+  <si>
+    <t>HSO_XP2_7</t>
+  </si>
+  <si>
+    <t>Измерение 3</t>
+  </si>
+  <si>
+    <t>VNH</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_4</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_9</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_12</t>
+  </si>
+  <si>
+    <t>HBRO_XP2_13</t>
+  </si>
+  <si>
+    <t>HBRO_XP3_7</t>
+  </si>
+  <si>
+    <t>HBRO_XP3_9</t>
+  </si>
+  <si>
+    <t>HBRO_XP3_10</t>
+  </si>
+  <si>
+    <t>HBRO_XP3_11</t>
+  </si>
+  <si>
+    <t>HBRO_XP3_12</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_5</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_6</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_7</t>
+  </si>
+  <si>
+    <t>DM_TEST_XP4_8</t>
+  </si>
+  <si>
+    <t>HLD</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>HI_XP1_9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_10</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>HI_XP1_27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>HI_XP1_29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>HI_XP1_30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_31</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>HI_XP1_39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>DIGN_XP1_40</t>
-  </si>
-  <si>
-    <t>Измерение 1</t>
-  </si>
-  <si>
-    <t>Измеренное значение</t>
-  </si>
-  <si>
-    <t>Пороги</t>
-  </si>
-  <si>
-    <t>Мин</t>
-  </si>
-  <si>
-    <t>Макс</t>
-  </si>
-  <si>
-    <t>Измерение 2</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Аналоговый</t>
-  </si>
-  <si>
-    <t>ADC_XP1_32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>ADC_XP1_34</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_11</t>
-  </si>
-  <si>
-    <t>U, В</t>
-  </si>
-  <si>
-    <t>I, A</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Выход</t>
-  </si>
-  <si>
-    <t>HSO_XP1_16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>HSO_XP1_19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>HSO_XP1_20</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>HSO_XP2_2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>HSO_XP2_3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>HSO_XP2_5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>HSO_XP2_6</t>
-  </si>
-  <si>
-    <t>HSO_XP2_8</t>
-  </si>
-  <si>
-    <t>HSO_XP2_11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>HSO_XP2_15</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HSO_XP3_3</t>
-  </si>
-  <si>
-    <t>HSO_XP3_6</t>
-  </si>
-  <si>
-    <t>HSO_XP3_8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_1</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_13</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_15</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_18</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>HSO_XP1_6</t>
-  </si>
-  <si>
-    <t>HSO_XP1_14</t>
-  </si>
-  <si>
-    <t>HSO_XP1_15</t>
-  </si>
-  <si>
-    <t>HSO_XP1_17</t>
-  </si>
-  <si>
-    <t>HSO_XP2_7</t>
-  </si>
-  <si>
-    <t>Измерение 3</t>
-  </si>
-  <si>
-    <t>VNH</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_4</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_9</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_12</t>
-  </si>
-  <si>
-    <t>HBRO_XP2_13</t>
-  </si>
-  <si>
-    <t>HBRO_XP3_7</t>
-  </si>
-  <si>
-    <t>HBRO_XP3_9</t>
-  </si>
-  <si>
-    <t>HBRO_XP3_10</t>
-  </si>
-  <si>
-    <t>HBRO_XP3_11</t>
-  </si>
-  <si>
-    <t>HBRO_XP3_12</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_5</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_6</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_7</t>
-  </si>
-  <si>
-    <t>DM_TEST_XP4_8</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +434,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CC770"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8686"/>
       </patternFill>
     </fill>
     <fill>
@@ -460,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,14 +505,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -804,7 +837,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4">
-        <v>45705</v>
+        <v>45707</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -816,7 +849,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6">
-        <v>0.602219444444444</v>
+        <v>0.619126261574074</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -935,14 +968,14 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -962,29 +995,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -999,7 +1032,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="12" t="s">
+      <c r="X11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1019,14 +1052,14 @@
       <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1046,29 +1079,29 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1083,7 +1116,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="12" t="s">
+      <c r="X13" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1103,14 +1136,14 @@
       <c r="E14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1130,29 +1163,29 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1167,7 +1200,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="12" t="s">
+      <c r="X15" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1187,14 +1220,14 @@
       <c r="E16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1214,29 +1247,29 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1251,7 +1284,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1271,14 +1304,14 @@
       <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1298,29 +1331,29 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1335,7 +1368,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="12" t="s">
+      <c r="X19" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1355,14 +1388,14 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1382,29 +1415,29 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1419,7 +1452,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="12" t="s">
+      <c r="X21" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1439,14 +1472,14 @@
       <c r="E22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1466,29 +1499,29 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1503,7 +1536,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="12" t="s">
+      <c r="X23" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1542,18 +1575,18 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="8" t="s">
         <v>50</v>
       </c>
@@ -1575,16 +1608,16 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="8" t="s">
         <v>51</v>
       </c>
@@ -1618,25 +1651,25 @@
       <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>21</v>
+      <c r="F27" s="18">
+        <v>17</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>20</v>
+      </c>
+      <c r="J27" s="18">
+        <v>233</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="9">
+        <v>230</v>
+      </c>
+      <c r="M27" s="9">
+        <v>250</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -1653,40 +1686,40 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>21</v>
+      <c r="F28" s="19">
+        <v>17</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="15">
+        <v>4</v>
+      </c>
+      <c r="I28" s="19">
+        <v>4</v>
+      </c>
+      <c r="J28" s="19">
+        <v>233</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="15">
+        <v>5</v>
+      </c>
+      <c r="M28" s="19">
+        <v>5</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -1698,7 +1731,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="12" t="s">
+      <c r="X28" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1718,25 +1751,25 @@
       <c r="E29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>21</v>
+      <c r="F29" s="19">
+        <v>17</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="9">
+        <v>4</v>
+      </c>
+      <c r="I29" s="19">
+        <v>6</v>
+      </c>
+      <c r="J29" s="19">
+        <v>233</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="9">
+        <v>7</v>
+      </c>
+      <c r="M29" s="19">
+        <v>6</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -1753,40 +1786,40 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>21</v>
+      <c r="F30" s="19">
+        <v>17</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="15">
+        <v>4</v>
+      </c>
+      <c r="I30" s="19">
+        <v>4</v>
+      </c>
+      <c r="J30" s="19">
+        <v>233</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="15">
+        <v>6</v>
+      </c>
+      <c r="M30" s="19">
+        <v>6</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -1798,7 +1831,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1837,20 +1870,20 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="13"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="8" t="s">
         <v>50</v>
       </c>
@@ -1870,8 +1903,8 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1880,8 +1913,8 @@
         <v>64</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1962,40 +1995,40 @@
       <c r="E35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>21</v>
+      <c r="F35" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G35" s="19">
+        <v>59.881</v>
       </c>
       <c r="H35" s="9">
         <v>4</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="19">
         <v>4</v>
       </c>
       <c r="J35" s="9">
         <v>4</v>
       </c>
-      <c r="K35" s="9">
-        <v>4</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>21</v>
+      <c r="K35" s="19">
+        <v>4</v>
+      </c>
+      <c r="L35" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M35" s="19">
+        <v>63.993</v>
       </c>
       <c r="N35" s="9">
         <v>4</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="19">
         <v>4</v>
       </c>
       <c r="P35" s="9">
         <v>4</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="19">
         <v>4</v>
       </c>
       <c r="R35" s="7"/>
@@ -2009,55 +2042,55 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="11">
-        <v>4</v>
-      </c>
-      <c r="I36" s="11">
-        <v>4</v>
-      </c>
-      <c r="J36" s="11">
-        <v>4</v>
-      </c>
-      <c r="K36" s="11">
-        <v>4</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="11">
-        <v>4</v>
-      </c>
-      <c r="O36" s="11">
-        <v>4</v>
-      </c>
-      <c r="P36" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="F36" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G36" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H36" s="15">
+        <v>4</v>
+      </c>
+      <c r="I36" s="19">
+        <v>4</v>
+      </c>
+      <c r="J36" s="15">
+        <v>4</v>
+      </c>
+      <c r="K36" s="19">
+        <v>4</v>
+      </c>
+      <c r="L36" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M36" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N36" s="15">
+        <v>4</v>
+      </c>
+      <c r="O36" s="19">
+        <v>4</v>
+      </c>
+      <c r="P36" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="19">
         <v>4</v>
       </c>
       <c r="R36" s="7"/>
@@ -2066,7 +2099,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="12" t="s">
+      <c r="X36" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2086,40 +2119,40 @@
       <c r="E37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>21</v>
+      <c r="F37" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G37" s="19">
+        <v>59.881</v>
       </c>
       <c r="H37" s="9">
         <v>4</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="19">
         <v>4</v>
       </c>
       <c r="J37" s="9">
         <v>4</v>
       </c>
-      <c r="K37" s="9">
-        <v>4</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>21</v>
+      <c r="K37" s="19">
+        <v>4</v>
+      </c>
+      <c r="L37" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M37" s="19">
+        <v>63.993</v>
       </c>
       <c r="N37" s="9">
         <v>4</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="19">
         <v>4</v>
       </c>
       <c r="P37" s="9">
         <v>4</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="19">
         <v>4</v>
       </c>
       <c r="R37" s="7"/>
@@ -2133,55 +2166,55 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="11">
-        <v>4</v>
-      </c>
-      <c r="I38" s="11">
-        <v>4</v>
-      </c>
-      <c r="J38" s="11">
-        <v>4</v>
-      </c>
-      <c r="K38" s="11">
-        <v>4</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="11">
-        <v>4</v>
-      </c>
-      <c r="O38" s="11">
-        <v>4</v>
-      </c>
-      <c r="P38" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="11">
+      <c r="F38" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G38" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H38" s="15">
+        <v>4</v>
+      </c>
+      <c r="I38" s="19">
+        <v>4</v>
+      </c>
+      <c r="J38" s="15">
+        <v>4</v>
+      </c>
+      <c r="K38" s="19">
+        <v>4</v>
+      </c>
+      <c r="L38" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M38" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N38" s="15">
+        <v>4</v>
+      </c>
+      <c r="O38" s="19">
+        <v>4</v>
+      </c>
+      <c r="P38" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="19">
         <v>4</v>
       </c>
       <c r="R38" s="7"/>
@@ -2190,7 +2223,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="12" t="s">
+      <c r="X38" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2210,40 +2243,40 @@
       <c r="E39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>21</v>
+      <c r="F39" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G39" s="19">
+        <v>59.881</v>
       </c>
       <c r="H39" s="9">
         <v>4</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="19">
         <v>4</v>
       </c>
       <c r="J39" s="9">
         <v>4</v>
       </c>
-      <c r="K39" s="9">
-        <v>4</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>21</v>
+      <c r="K39" s="19">
+        <v>4</v>
+      </c>
+      <c r="L39" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M39" s="19">
+        <v>63.993</v>
       </c>
       <c r="N39" s="9">
         <v>4</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="19">
         <v>4</v>
       </c>
       <c r="P39" s="9">
         <v>4</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="19">
         <v>4</v>
       </c>
       <c r="R39" s="7"/>
@@ -2257,55 +2290,55 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="11">
-        <v>4</v>
-      </c>
-      <c r="I40" s="11">
-        <v>4</v>
-      </c>
-      <c r="J40" s="11">
-        <v>4</v>
-      </c>
-      <c r="K40" s="11">
-        <v>4</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="11">
-        <v>4</v>
-      </c>
-      <c r="O40" s="11">
-        <v>4</v>
-      </c>
-      <c r="P40" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="F40" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G40" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H40" s="15">
+        <v>4</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4</v>
+      </c>
+      <c r="J40" s="15">
+        <v>4</v>
+      </c>
+      <c r="K40" s="19">
+        <v>4</v>
+      </c>
+      <c r="L40" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M40" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N40" s="15">
+        <v>4</v>
+      </c>
+      <c r="O40" s="19">
+        <v>4</v>
+      </c>
+      <c r="P40" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="19">
         <v>4</v>
       </c>
       <c r="R40" s="7"/>
@@ -2314,7 +2347,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="12" t="s">
+      <c r="X40" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2334,40 +2367,40 @@
       <c r="E41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>21</v>
+      <c r="F41" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G41" s="19">
+        <v>59.881</v>
       </c>
       <c r="H41" s="9">
         <v>4</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="19">
         <v>4</v>
       </c>
       <c r="J41" s="9">
         <v>4</v>
       </c>
-      <c r="K41" s="9">
-        <v>4</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>21</v>
+      <c r="K41" s="19">
+        <v>4</v>
+      </c>
+      <c r="L41" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M41" s="19">
+        <v>63.993</v>
       </c>
       <c r="N41" s="9">
         <v>4</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="19">
         <v>4</v>
       </c>
       <c r="P41" s="9">
         <v>4</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="19">
         <v>4</v>
       </c>
       <c r="R41" s="7"/>
@@ -2381,55 +2414,55 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="11">
-        <v>4</v>
-      </c>
-      <c r="I42" s="11">
-        <v>4</v>
-      </c>
-      <c r="J42" s="11">
-        <v>4</v>
-      </c>
-      <c r="K42" s="11">
-        <v>4</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="11">
-        <v>4</v>
-      </c>
-      <c r="O42" s="11">
-        <v>4</v>
-      </c>
-      <c r="P42" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="11">
+      <c r="F42" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G42" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H42" s="15">
+        <v>4</v>
+      </c>
+      <c r="I42" s="19">
+        <v>4</v>
+      </c>
+      <c r="J42" s="15">
+        <v>4</v>
+      </c>
+      <c r="K42" s="19">
+        <v>4</v>
+      </c>
+      <c r="L42" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M42" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N42" s="15">
+        <v>4</v>
+      </c>
+      <c r="O42" s="19">
+        <v>4</v>
+      </c>
+      <c r="P42" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="19">
         <v>4</v>
       </c>
       <c r="R42" s="7"/>
@@ -2438,7 +2471,7 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="12" t="s">
+      <c r="X42" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2458,40 +2491,40 @@
       <c r="E43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>21</v>
+      <c r="F43" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G43" s="19">
+        <v>59.881</v>
       </c>
       <c r="H43" s="9">
         <v>4</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="19">
         <v>4</v>
       </c>
       <c r="J43" s="9">
         <v>4</v>
       </c>
-      <c r="K43" s="9">
-        <v>4</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>21</v>
+      <c r="K43" s="19">
+        <v>4</v>
+      </c>
+      <c r="L43" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M43" s="19">
+        <v>63.993</v>
       </c>
       <c r="N43" s="9">
         <v>4</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="19">
         <v>4</v>
       </c>
       <c r="P43" s="9">
         <v>4</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="19">
         <v>4</v>
       </c>
       <c r="R43" s="7"/>
@@ -2505,55 +2538,55 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="11">
-        <v>4</v>
-      </c>
-      <c r="I44" s="11">
-        <v>4</v>
-      </c>
-      <c r="J44" s="11">
-        <v>4</v>
-      </c>
-      <c r="K44" s="11">
-        <v>4</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="11">
-        <v>4</v>
-      </c>
-      <c r="O44" s="11">
-        <v>4</v>
-      </c>
-      <c r="P44" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="11">
+      <c r="F44" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G44" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H44" s="15">
+        <v>4</v>
+      </c>
+      <c r="I44" s="19">
+        <v>4</v>
+      </c>
+      <c r="J44" s="15">
+        <v>4</v>
+      </c>
+      <c r="K44" s="19">
+        <v>4</v>
+      </c>
+      <c r="L44" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M44" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N44" s="15">
+        <v>4</v>
+      </c>
+      <c r="O44" s="19">
+        <v>4</v>
+      </c>
+      <c r="P44" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="19">
         <v>4</v>
       </c>
       <c r="R44" s="7"/>
@@ -2562,7 +2595,7 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="12" t="s">
+      <c r="X44" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2582,40 +2615,40 @@
       <c r="E45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>21</v>
+      <c r="F45" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G45" s="19">
+        <v>59.881</v>
       </c>
       <c r="H45" s="9">
         <v>4</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="19">
         <v>4</v>
       </c>
       <c r="J45" s="9">
         <v>4</v>
       </c>
-      <c r="K45" s="9">
-        <v>4</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>21</v>
+      <c r="K45" s="19">
+        <v>4</v>
+      </c>
+      <c r="L45" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M45" s="19">
+        <v>63.993</v>
       </c>
       <c r="N45" s="9">
         <v>4</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="19">
         <v>4</v>
       </c>
       <c r="P45" s="9">
         <v>4</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="19">
         <v>4</v>
       </c>
       <c r="R45" s="7"/>
@@ -2629,55 +2662,55 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="11">
-        <v>4</v>
-      </c>
-      <c r="I46" s="11">
-        <v>4</v>
-      </c>
-      <c r="J46" s="11">
-        <v>4</v>
-      </c>
-      <c r="K46" s="11">
-        <v>4</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="11">
-        <v>4</v>
-      </c>
-      <c r="O46" s="11">
-        <v>4</v>
-      </c>
-      <c r="P46" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="11">
+      <c r="F46" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G46" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H46" s="15">
+        <v>4</v>
+      </c>
+      <c r="I46" s="19">
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <v>4</v>
+      </c>
+      <c r="K46" s="19">
+        <v>4</v>
+      </c>
+      <c r="L46" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M46" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N46" s="15">
+        <v>4</v>
+      </c>
+      <c r="O46" s="19">
+        <v>4</v>
+      </c>
+      <c r="P46" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="19">
         <v>4</v>
       </c>
       <c r="R46" s="7"/>
@@ -2686,7 +2719,7 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="12" t="s">
+      <c r="X46" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2706,40 +2739,40 @@
       <c r="E47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>21</v>
+      <c r="F47" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G47" s="19">
+        <v>59.881</v>
       </c>
       <c r="H47" s="9">
         <v>4</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="19">
         <v>4</v>
       </c>
       <c r="J47" s="9">
         <v>4</v>
       </c>
-      <c r="K47" s="9">
-        <v>4</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>21</v>
+      <c r="K47" s="19">
+        <v>4</v>
+      </c>
+      <c r="L47" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M47" s="19">
+        <v>63.993</v>
       </c>
       <c r="N47" s="9">
         <v>4</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="19">
         <v>4</v>
       </c>
       <c r="P47" s="9">
         <v>4</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="19">
         <v>4</v>
       </c>
       <c r="R47" s="7"/>
@@ -2753,55 +2786,55 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="11">
-        <v>4</v>
-      </c>
-      <c r="I48" s="11">
-        <v>4</v>
-      </c>
-      <c r="J48" s="11">
-        <v>4</v>
-      </c>
-      <c r="K48" s="11">
-        <v>4</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="11">
-        <v>4</v>
-      </c>
-      <c r="O48" s="11">
-        <v>4</v>
-      </c>
-      <c r="P48" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="11">
+      <c r="F48" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G48" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H48" s="15">
+        <v>4</v>
+      </c>
+      <c r="I48" s="19">
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <v>4</v>
+      </c>
+      <c r="K48" s="19">
+        <v>4</v>
+      </c>
+      <c r="L48" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M48" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N48" s="15">
+        <v>4</v>
+      </c>
+      <c r="O48" s="19">
+        <v>4</v>
+      </c>
+      <c r="P48" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="19">
         <v>4</v>
       </c>
       <c r="R48" s="7"/>
@@ -2810,7 +2843,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
-      <c r="X48" s="12" t="s">
+      <c r="X48" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2830,40 +2863,40 @@
       <c r="E49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>21</v>
+      <c r="F49" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G49" s="19">
+        <v>59.881</v>
       </c>
       <c r="H49" s="9">
         <v>4</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="19">
         <v>4</v>
       </c>
       <c r="J49" s="9">
         <v>4</v>
       </c>
-      <c r="K49" s="9">
-        <v>4</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>21</v>
+      <c r="K49" s="19">
+        <v>4</v>
+      </c>
+      <c r="L49" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M49" s="19">
+        <v>63.993</v>
       </c>
       <c r="N49" s="9">
         <v>4</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="19">
         <v>4</v>
       </c>
       <c r="P49" s="9">
         <v>4</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="19">
         <v>4</v>
       </c>
       <c r="R49" s="7"/>
@@ -2877,55 +2910,55 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="11">
-        <v>4</v>
-      </c>
-      <c r="I50" s="11">
-        <v>4</v>
-      </c>
-      <c r="J50" s="11">
-        <v>4</v>
-      </c>
-      <c r="K50" s="11">
-        <v>4</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="11">
-        <v>4</v>
-      </c>
-      <c r="O50" s="11">
-        <v>4</v>
-      </c>
-      <c r="P50" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="11">
+      <c r="F50" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G50" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H50" s="15">
+        <v>4</v>
+      </c>
+      <c r="I50" s="19">
+        <v>4</v>
+      </c>
+      <c r="J50" s="15">
+        <v>4</v>
+      </c>
+      <c r="K50" s="19">
+        <v>4</v>
+      </c>
+      <c r="L50" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M50" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N50" s="15">
+        <v>4</v>
+      </c>
+      <c r="O50" s="19">
+        <v>4</v>
+      </c>
+      <c r="P50" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="19">
         <v>4</v>
       </c>
       <c r="R50" s="7"/>
@@ -2934,7 +2967,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="12" t="s">
+      <c r="X50" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2954,40 +2987,40 @@
       <c r="E51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>21</v>
+      <c r="F51" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G51" s="19">
+        <v>59.881</v>
       </c>
       <c r="H51" s="9">
         <v>4</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="19">
         <v>4</v>
       </c>
       <c r="J51" s="9">
         <v>4</v>
       </c>
-      <c r="K51" s="9">
-        <v>4</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>21</v>
+      <c r="K51" s="19">
+        <v>4</v>
+      </c>
+      <c r="L51" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M51" s="19">
+        <v>63.993</v>
       </c>
       <c r="N51" s="9">
         <v>4</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="19">
         <v>4</v>
       </c>
       <c r="P51" s="9">
         <v>4</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="19">
         <v>4</v>
       </c>
       <c r="R51" s="7"/>
@@ -3001,55 +3034,55 @@
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="11">
-        <v>4</v>
-      </c>
-      <c r="I52" s="11">
-        <v>4</v>
-      </c>
-      <c r="J52" s="11">
-        <v>4</v>
-      </c>
-      <c r="K52" s="11">
-        <v>4</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="11">
-        <v>4</v>
-      </c>
-      <c r="O52" s="11">
-        <v>4</v>
-      </c>
-      <c r="P52" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="11">
+      <c r="F52" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G52" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H52" s="15">
+        <v>4</v>
+      </c>
+      <c r="I52" s="19">
+        <v>4</v>
+      </c>
+      <c r="J52" s="15">
+        <v>4</v>
+      </c>
+      <c r="K52" s="19">
+        <v>4</v>
+      </c>
+      <c r="L52" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M52" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N52" s="15">
+        <v>4</v>
+      </c>
+      <c r="O52" s="19">
+        <v>4</v>
+      </c>
+      <c r="P52" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="19">
         <v>4</v>
       </c>
       <c r="R52" s="7"/>
@@ -3058,7 +3091,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
-      <c r="X52" s="12" t="s">
+      <c r="X52" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3078,40 +3111,40 @@
       <c r="E53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>21</v>
+      <c r="F53" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G53" s="19">
+        <v>59.881</v>
       </c>
       <c r="H53" s="9">
         <v>4</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="19">
         <v>4</v>
       </c>
       <c r="J53" s="9">
         <v>4</v>
       </c>
-      <c r="K53" s="9">
-        <v>4</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>21</v>
+      <c r="K53" s="19">
+        <v>4</v>
+      </c>
+      <c r="L53" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M53" s="19">
+        <v>63.993</v>
       </c>
       <c r="N53" s="9">
         <v>4</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="19">
         <v>4</v>
       </c>
       <c r="P53" s="9">
         <v>4</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="19">
         <v>4</v>
       </c>
       <c r="R53" s="7"/>
@@ -3125,55 +3158,55 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="11">
-        <v>4</v>
-      </c>
-      <c r="I54" s="11">
-        <v>4</v>
-      </c>
-      <c r="J54" s="11">
-        <v>4</v>
-      </c>
-      <c r="K54" s="11">
-        <v>4</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="11">
-        <v>4</v>
-      </c>
-      <c r="O54" s="11">
-        <v>4</v>
-      </c>
-      <c r="P54" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="11">
+      <c r="F54" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G54" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H54" s="15">
+        <v>4</v>
+      </c>
+      <c r="I54" s="19">
+        <v>4</v>
+      </c>
+      <c r="J54" s="15">
+        <v>4</v>
+      </c>
+      <c r="K54" s="19">
+        <v>4</v>
+      </c>
+      <c r="L54" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M54" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N54" s="15">
+        <v>4</v>
+      </c>
+      <c r="O54" s="19">
+        <v>4</v>
+      </c>
+      <c r="P54" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="19">
         <v>4</v>
       </c>
       <c r="R54" s="7"/>
@@ -3182,7 +3215,7 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="12" t="s">
+      <c r="X54" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3202,40 +3235,40 @@
       <c r="E55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>21</v>
+      <c r="F55" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G55" s="19">
+        <v>59.881</v>
       </c>
       <c r="H55" s="9">
         <v>4</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="19">
         <v>4</v>
       </c>
       <c r="J55" s="9">
         <v>4</v>
       </c>
-      <c r="K55" s="9">
-        <v>4</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>21</v>
+      <c r="K55" s="19">
+        <v>4</v>
+      </c>
+      <c r="L55" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M55" s="19">
+        <v>63.993</v>
       </c>
       <c r="N55" s="9">
         <v>4</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O55" s="19">
         <v>4</v>
       </c>
       <c r="P55" s="9">
         <v>4</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="Q55" s="19">
         <v>4</v>
       </c>
       <c r="R55" s="7"/>
@@ -3283,20 +3316,20 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="13"/>
+      <c r="M57" s="17"/>
       <c r="N57" s="8" t="s">
         <v>50</v>
       </c>
@@ -3316,8 +3349,8 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="8" t="s">
         <v>63</v>
       </c>
@@ -3326,8 +3359,8 @@
         <v>64</v>
       </c>
       <c r="K58" s="8"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="8" t="s">
         <v>63</v>
       </c>
@@ -3393,55 +3426,55 @@
       <c r="W59" s="7"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="11">
+      <c r="F60" s="19">
+        <v>0</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19">
         <v>1</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="15">
         <v>10</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="19">
         <v>12</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="15">
         <v>70</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="11">
+      <c r="L60" s="19">
+        <v>0</v>
+      </c>
+      <c r="M60" s="19">
+        <v>0</v>
+      </c>
+      <c r="N60" s="19">
         <v>2</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="15">
         <v>25</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P60" s="19">
         <v>40</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q60" s="15">
         <v>70</v>
       </c>
       <c r="R60" s="7"/>
@@ -3450,7 +3483,7 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="12" t="s">
+      <c r="X60" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3470,40 +3503,40 @@
       <c r="E61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>21</v>
+      <c r="F61" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G61" s="19">
+        <v>59.881</v>
       </c>
       <c r="H61" s="9">
         <v>4</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="19">
         <v>4</v>
       </c>
       <c r="J61" s="9">
         <v>4</v>
       </c>
-      <c r="K61" s="9">
-        <v>4</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>21</v>
+      <c r="K61" s="19">
+        <v>4</v>
+      </c>
+      <c r="L61" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M61" s="19">
+        <v>63.993</v>
       </c>
       <c r="N61" s="9">
         <v>4</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="19">
         <v>4</v>
       </c>
       <c r="P61" s="9">
         <v>4</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="Q61" s="19">
         <v>4</v>
       </c>
       <c r="R61" s="7"/>
@@ -3517,55 +3550,55 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="11">
-        <v>4</v>
-      </c>
-      <c r="I62" s="11">
-        <v>4</v>
-      </c>
-      <c r="J62" s="11">
-        <v>4</v>
-      </c>
-      <c r="K62" s="11">
-        <v>4</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="11">
-        <v>4</v>
-      </c>
-      <c r="O62" s="11">
-        <v>4</v>
-      </c>
-      <c r="P62" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="11">
+      <c r="F62" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G62" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H62" s="15">
+        <v>4</v>
+      </c>
+      <c r="I62" s="19">
+        <v>4</v>
+      </c>
+      <c r="J62" s="15">
+        <v>4</v>
+      </c>
+      <c r="K62" s="19">
+        <v>4</v>
+      </c>
+      <c r="L62" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M62" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N62" s="15">
+        <v>4</v>
+      </c>
+      <c r="O62" s="19">
+        <v>4</v>
+      </c>
+      <c r="P62" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="19">
         <v>4</v>
       </c>
       <c r="R62" s="7"/>
@@ -3574,7 +3607,7 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
-      <c r="X62" s="12" t="s">
+      <c r="X62" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3594,40 +3627,40 @@
       <c r="E63" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>21</v>
+      <c r="F63" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G63" s="19">
+        <v>59.881</v>
       </c>
       <c r="H63" s="9">
         <v>4</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="19">
         <v>4</v>
       </c>
       <c r="J63" s="9">
         <v>4</v>
       </c>
-      <c r="K63" s="9">
-        <v>4</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>21</v>
+      <c r="K63" s="19">
+        <v>4</v>
+      </c>
+      <c r="L63" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M63" s="19">
+        <v>63.993</v>
       </c>
       <c r="N63" s="9">
         <v>4</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="19">
         <v>4</v>
       </c>
       <c r="P63" s="9">
         <v>4</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="Q63" s="19">
         <v>4</v>
       </c>
       <c r="R63" s="7"/>
@@ -3641,55 +3674,55 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="11">
-        <v>4</v>
-      </c>
-      <c r="I64" s="11">
-        <v>4</v>
-      </c>
-      <c r="J64" s="11">
-        <v>4</v>
-      </c>
-      <c r="K64" s="11">
-        <v>4</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="11">
-        <v>4</v>
-      </c>
-      <c r="O64" s="11">
-        <v>4</v>
-      </c>
-      <c r="P64" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q64" s="11">
+      <c r="F64" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G64" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H64" s="15">
+        <v>4</v>
+      </c>
+      <c r="I64" s="19">
+        <v>4</v>
+      </c>
+      <c r="J64" s="15">
+        <v>4</v>
+      </c>
+      <c r="K64" s="19">
+        <v>4</v>
+      </c>
+      <c r="L64" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="M64" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="N64" s="15">
+        <v>4</v>
+      </c>
+      <c r="O64" s="19">
+        <v>4</v>
+      </c>
+      <c r="P64" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="19">
         <v>4</v>
       </c>
       <c r="R64" s="7"/>
@@ -3698,7 +3731,7 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
-      <c r="X64" s="12" t="s">
+      <c r="X64" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3739,30 +3772,30 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="13" t="s">
+      <c r="L66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M66" s="13"/>
+      <c r="M66" s="17"/>
       <c r="N66" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="13" t="s">
+      <c r="R66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S66" s="13"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="8" t="s">
         <v>50</v>
       </c>
@@ -3776,8 +3809,8 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3786,8 +3819,8 @@
         <v>64</v>
       </c>
       <c r="K67" s="8"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
       <c r="N67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3796,8 +3829,8 @@
         <v>64</v>
       </c>
       <c r="Q67" s="8"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3884,58 +3917,58 @@
       <c r="E69" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>21</v>
+      <c r="F69" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G69" s="19">
+        <v>59.881</v>
       </c>
       <c r="H69" s="9">
         <v>4</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="19">
         <v>4</v>
       </c>
       <c r="J69" s="9">
         <v>4</v>
       </c>
-      <c r="K69" s="9">
-        <v>4</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>21</v>
+      <c r="K69" s="19">
+        <v>4</v>
+      </c>
+      <c r="L69" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M69" s="19">
+        <v>59.881</v>
       </c>
       <c r="N69" s="9">
         <v>4</v>
       </c>
-      <c r="O69" s="9">
+      <c r="O69" s="19">
         <v>4</v>
       </c>
       <c r="P69" s="9">
         <v>4</v>
       </c>
-      <c r="Q69" s="9">
-        <v>4</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="9" t="s">
-        <v>21</v>
+      <c r="Q69" s="19">
+        <v>4</v>
+      </c>
+      <c r="R69" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S69" s="19">
+        <v>63.993</v>
       </c>
       <c r="T69" s="9">
         <v>4</v>
       </c>
-      <c r="U69" s="9">
+      <c r="U69" s="19">
         <v>4</v>
       </c>
       <c r="V69" s="9">
         <v>4</v>
       </c>
-      <c r="W69" s="9">
+      <c r="W69" s="19">
         <v>4</v>
       </c>
       <c r="X69" s="10" t="s">
@@ -3943,76 +3976,76 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="11">
-        <v>4</v>
-      </c>
-      <c r="I70" s="11">
-        <v>4</v>
-      </c>
-      <c r="J70" s="11">
-        <v>4</v>
-      </c>
-      <c r="K70" s="11">
-        <v>4</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="11">
-        <v>4</v>
-      </c>
-      <c r="O70" s="11">
-        <v>4</v>
-      </c>
-      <c r="P70" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q70" s="11">
-        <v>4</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T70" s="11">
-        <v>4</v>
-      </c>
-      <c r="U70" s="11">
-        <v>4</v>
-      </c>
-      <c r="V70" s="11">
-        <v>4</v>
-      </c>
-      <c r="W70" s="11">
-        <v>4</v>
-      </c>
-      <c r="X70" s="12" t="s">
+      <c r="F70" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G70" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H70" s="15">
+        <v>4</v>
+      </c>
+      <c r="I70" s="19">
+        <v>4</v>
+      </c>
+      <c r="J70" s="15">
+        <v>4</v>
+      </c>
+      <c r="K70" s="19">
+        <v>4</v>
+      </c>
+      <c r="L70" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M70" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N70" s="15">
+        <v>4</v>
+      </c>
+      <c r="O70" s="19">
+        <v>4</v>
+      </c>
+      <c r="P70" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>4</v>
+      </c>
+      <c r="R70" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S70" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T70" s="15">
+        <v>4</v>
+      </c>
+      <c r="U70" s="19">
+        <v>4</v>
+      </c>
+      <c r="V70" s="15">
+        <v>4</v>
+      </c>
+      <c r="W70" s="19">
+        <v>4</v>
+      </c>
+      <c r="X70" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4032,58 +4065,58 @@
       <c r="E71" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>21</v>
+      <c r="F71" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G71" s="19">
+        <v>59.881</v>
       </c>
       <c r="H71" s="9">
         <v>4</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="19">
         <v>4</v>
       </c>
       <c r="J71" s="9">
         <v>4</v>
       </c>
-      <c r="K71" s="9">
-        <v>4</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>21</v>
+      <c r="K71" s="19">
+        <v>4</v>
+      </c>
+      <c r="L71" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M71" s="19">
+        <v>59.881</v>
       </c>
       <c r="N71" s="9">
         <v>4</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O71" s="19">
         <v>4</v>
       </c>
       <c r="P71" s="9">
         <v>4</v>
       </c>
-      <c r="Q71" s="9">
-        <v>4</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>21</v>
+      <c r="Q71" s="19">
+        <v>4</v>
+      </c>
+      <c r="R71" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S71" s="19">
+        <v>63.993</v>
       </c>
       <c r="T71" s="9">
         <v>4</v>
       </c>
-      <c r="U71" s="9">
+      <c r="U71" s="19">
         <v>4</v>
       </c>
       <c r="V71" s="9">
         <v>4</v>
       </c>
-      <c r="W71" s="9">
+      <c r="W71" s="19">
         <v>4</v>
       </c>
       <c r="X71" s="10" t="s">
@@ -4091,76 +4124,76 @@
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="11">
-        <v>4</v>
-      </c>
-      <c r="I72" s="11">
-        <v>4</v>
-      </c>
-      <c r="J72" s="11">
-        <v>4</v>
-      </c>
-      <c r="K72" s="11">
-        <v>4</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="11">
-        <v>4</v>
-      </c>
-      <c r="O72" s="11">
-        <v>4</v>
-      </c>
-      <c r="P72" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="11">
-        <v>4</v>
-      </c>
-      <c r="R72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T72" s="11">
-        <v>4</v>
-      </c>
-      <c r="U72" s="11">
-        <v>4</v>
-      </c>
-      <c r="V72" s="11">
-        <v>4</v>
-      </c>
-      <c r="W72" s="11">
-        <v>4</v>
-      </c>
-      <c r="X72" s="12" t="s">
+      <c r="F72" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G72" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H72" s="15">
+        <v>4</v>
+      </c>
+      <c r="I72" s="19">
+        <v>4</v>
+      </c>
+      <c r="J72" s="15">
+        <v>4</v>
+      </c>
+      <c r="K72" s="19">
+        <v>4</v>
+      </c>
+      <c r="L72" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M72" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N72" s="15">
+        <v>4</v>
+      </c>
+      <c r="O72" s="19">
+        <v>4</v>
+      </c>
+      <c r="P72" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>4</v>
+      </c>
+      <c r="R72" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S72" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T72" s="15">
+        <v>4</v>
+      </c>
+      <c r="U72" s="19">
+        <v>4</v>
+      </c>
+      <c r="V72" s="15">
+        <v>4</v>
+      </c>
+      <c r="W72" s="19">
+        <v>4</v>
+      </c>
+      <c r="X72" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4180,58 +4213,58 @@
       <c r="E73" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>21</v>
+      <c r="F73" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G73" s="19">
+        <v>59.881</v>
       </c>
       <c r="H73" s="9">
         <v>4</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="19">
         <v>4</v>
       </c>
       <c r="J73" s="9">
         <v>4</v>
       </c>
-      <c r="K73" s="9">
-        <v>4</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>21</v>
+      <c r="K73" s="19">
+        <v>4</v>
+      </c>
+      <c r="L73" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M73" s="19">
+        <v>59.881</v>
       </c>
       <c r="N73" s="9">
         <v>4</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="19">
         <v>4</v>
       </c>
       <c r="P73" s="9">
         <v>4</v>
       </c>
-      <c r="Q73" s="9">
-        <v>4</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S73" s="9" t="s">
-        <v>21</v>
+      <c r="Q73" s="19">
+        <v>4</v>
+      </c>
+      <c r="R73" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S73" s="19">
+        <v>63.993</v>
       </c>
       <c r="T73" s="9">
         <v>4</v>
       </c>
-      <c r="U73" s="9">
+      <c r="U73" s="19">
         <v>4</v>
       </c>
       <c r="V73" s="9">
         <v>4</v>
       </c>
-      <c r="W73" s="9">
+      <c r="W73" s="19">
         <v>4</v>
       </c>
       <c r="X73" s="10" t="s">
@@ -4239,76 +4272,76 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="11">
-        <v>4</v>
-      </c>
-      <c r="I74" s="11">
-        <v>4</v>
-      </c>
-      <c r="J74" s="11">
-        <v>4</v>
-      </c>
-      <c r="K74" s="11">
-        <v>4</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="11">
-        <v>4</v>
-      </c>
-      <c r="O74" s="11">
-        <v>4</v>
-      </c>
-      <c r="P74" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q74" s="11">
-        <v>4</v>
-      </c>
-      <c r="R74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T74" s="11">
-        <v>4</v>
-      </c>
-      <c r="U74" s="11">
-        <v>4</v>
-      </c>
-      <c r="V74" s="11">
-        <v>4</v>
-      </c>
-      <c r="W74" s="11">
-        <v>4</v>
-      </c>
-      <c r="X74" s="12" t="s">
+      <c r="F74" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G74" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H74" s="15">
+        <v>4</v>
+      </c>
+      <c r="I74" s="19">
+        <v>4</v>
+      </c>
+      <c r="J74" s="15">
+        <v>4</v>
+      </c>
+      <c r="K74" s="19">
+        <v>4</v>
+      </c>
+      <c r="L74" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M74" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N74" s="15">
+        <v>4</v>
+      </c>
+      <c r="O74" s="19">
+        <v>4</v>
+      </c>
+      <c r="P74" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>4</v>
+      </c>
+      <c r="R74" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S74" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T74" s="15">
+        <v>4</v>
+      </c>
+      <c r="U74" s="19">
+        <v>4</v>
+      </c>
+      <c r="V74" s="15">
+        <v>4</v>
+      </c>
+      <c r="W74" s="19">
+        <v>4</v>
+      </c>
+      <c r="X74" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4328,58 +4361,58 @@
       <c r="E75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>21</v>
+      <c r="F75" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G75" s="19">
+        <v>59.881</v>
       </c>
       <c r="H75" s="9">
         <v>4</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="19">
         <v>4</v>
       </c>
       <c r="J75" s="9">
         <v>4</v>
       </c>
-      <c r="K75" s="9">
-        <v>4</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>21</v>
+      <c r="K75" s="19">
+        <v>4</v>
+      </c>
+      <c r="L75" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M75" s="19">
+        <v>59.881</v>
       </c>
       <c r="N75" s="9">
         <v>4</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="19">
         <v>4</v>
       </c>
       <c r="P75" s="9">
         <v>4</v>
       </c>
-      <c r="Q75" s="9">
-        <v>4</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S75" s="9" t="s">
-        <v>21</v>
+      <c r="Q75" s="19">
+        <v>4</v>
+      </c>
+      <c r="R75" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S75" s="19">
+        <v>63.993</v>
       </c>
       <c r="T75" s="9">
         <v>4</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="19">
         <v>4</v>
       </c>
       <c r="V75" s="9">
         <v>4</v>
       </c>
-      <c r="W75" s="9">
+      <c r="W75" s="19">
         <v>4</v>
       </c>
       <c r="X75" s="10" t="s">
@@ -4387,76 +4420,76 @@
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="11">
-        <v>4</v>
-      </c>
-      <c r="I76" s="11">
-        <v>4</v>
-      </c>
-      <c r="J76" s="11">
-        <v>4</v>
-      </c>
-      <c r="K76" s="11">
-        <v>4</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="11">
-        <v>4</v>
-      </c>
-      <c r="O76" s="11">
-        <v>4</v>
-      </c>
-      <c r="P76" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="11">
-        <v>4</v>
-      </c>
-      <c r="R76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T76" s="11">
-        <v>4</v>
-      </c>
-      <c r="U76" s="11">
-        <v>4</v>
-      </c>
-      <c r="V76" s="11">
+      <c r="F76" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G76" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H76" s="15">
+        <v>4</v>
+      </c>
+      <c r="I76" s="19">
+        <v>4</v>
+      </c>
+      <c r="J76" s="15">
+        <v>4</v>
+      </c>
+      <c r="K76" s="19">
+        <v>4</v>
+      </c>
+      <c r="L76" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M76" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N76" s="15">
+        <v>4</v>
+      </c>
+      <c r="O76" s="19">
+        <v>4</v>
+      </c>
+      <c r="P76" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>4</v>
+      </c>
+      <c r="R76" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S76" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T76" s="15">
+        <v>4</v>
+      </c>
+      <c r="U76" s="19">
+        <v>4</v>
+      </c>
+      <c r="V76" s="15">
         <v>6</v>
       </c>
-      <c r="W76" s="11">
+      <c r="W76" s="19">
         <v>6</v>
       </c>
-      <c r="X76" s="12" t="s">
+      <c r="X76" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4476,58 +4509,58 @@
       <c r="E77" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>21</v>
+      <c r="F77" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G77" s="19">
+        <v>59.881</v>
       </c>
       <c r="H77" s="9">
         <v>4</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="19">
         <v>4</v>
       </c>
       <c r="J77" s="9">
         <v>4</v>
       </c>
-      <c r="K77" s="9">
-        <v>4</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>21</v>
+      <c r="K77" s="19">
+        <v>4</v>
+      </c>
+      <c r="L77" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M77" s="19">
+        <v>59.881</v>
       </c>
       <c r="N77" s="9">
         <v>4</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="19">
         <v>4</v>
       </c>
       <c r="P77" s="9">
         <v>4</v>
       </c>
-      <c r="Q77" s="9">
-        <v>4</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>21</v>
+      <c r="Q77" s="19">
+        <v>4</v>
+      </c>
+      <c r="R77" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S77" s="19">
+        <v>63.993</v>
       </c>
       <c r="T77" s="9">
         <v>4</v>
       </c>
-      <c r="U77" s="9">
+      <c r="U77" s="19">
         <v>4</v>
       </c>
       <c r="V77" s="9">
         <v>4</v>
       </c>
-      <c r="W77" s="9">
+      <c r="W77" s="19">
         <v>4</v>
       </c>
       <c r="X77" s="10" t="s">
@@ -4535,76 +4568,76 @@
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="11">
-        <v>4</v>
-      </c>
-      <c r="I78" s="11">
-        <v>4</v>
-      </c>
-      <c r="J78" s="11">
-        <v>4</v>
-      </c>
-      <c r="K78" s="11">
-        <v>4</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="11">
-        <v>4</v>
-      </c>
-      <c r="O78" s="11">
-        <v>4</v>
-      </c>
-      <c r="P78" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q78" s="11">
-        <v>4</v>
-      </c>
-      <c r="R78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S78" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T78" s="11">
-        <v>4</v>
-      </c>
-      <c r="U78" s="11">
-        <v>4</v>
-      </c>
-      <c r="V78" s="11">
+      <c r="F78" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G78" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H78" s="15">
+        <v>4</v>
+      </c>
+      <c r="I78" s="19">
+        <v>4</v>
+      </c>
+      <c r="J78" s="15">
+        <v>4</v>
+      </c>
+      <c r="K78" s="19">
+        <v>4</v>
+      </c>
+      <c r="L78" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M78" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N78" s="15">
+        <v>4</v>
+      </c>
+      <c r="O78" s="19">
+        <v>4</v>
+      </c>
+      <c r="P78" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>4</v>
+      </c>
+      <c r="R78" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S78" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T78" s="15">
+        <v>4</v>
+      </c>
+      <c r="U78" s="19">
+        <v>4</v>
+      </c>
+      <c r="V78" s="15">
         <v>6</v>
       </c>
-      <c r="W78" s="11">
+      <c r="W78" s="19">
         <v>6</v>
       </c>
-      <c r="X78" s="12" t="s">
+      <c r="X78" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4624,58 +4657,58 @@
       <c r="E79" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>21</v>
+      <c r="F79" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G79" s="19">
+        <v>59.881</v>
       </c>
       <c r="H79" s="9">
         <v>4</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="19">
         <v>4</v>
       </c>
       <c r="J79" s="9">
         <v>4</v>
       </c>
-      <c r="K79" s="9">
-        <v>4</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>21</v>
+      <c r="K79" s="19">
+        <v>4</v>
+      </c>
+      <c r="L79" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M79" s="19">
+        <v>59.881</v>
       </c>
       <c r="N79" s="9">
         <v>4</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79" s="19">
         <v>4</v>
       </c>
       <c r="P79" s="9">
         <v>4</v>
       </c>
-      <c r="Q79" s="9">
-        <v>4</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>21</v>
+      <c r="Q79" s="19">
+        <v>4</v>
+      </c>
+      <c r="R79" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S79" s="19">
+        <v>63.993</v>
       </c>
       <c r="T79" s="9">
         <v>4</v>
       </c>
-      <c r="U79" s="9">
+      <c r="U79" s="19">
         <v>4</v>
       </c>
       <c r="V79" s="9">
         <v>6</v>
       </c>
-      <c r="W79" s="9">
+      <c r="W79" s="19">
         <v>6</v>
       </c>
       <c r="X79" s="10" t="s">
@@ -4683,76 +4716,76 @@
       </c>
     </row>
     <row r="80" spans="1:24">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="11">
-        <v>4</v>
-      </c>
-      <c r="I80" s="11">
-        <v>4</v>
-      </c>
-      <c r="J80" s="11">
-        <v>4</v>
-      </c>
-      <c r="K80" s="11">
-        <v>4</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="11">
-        <v>4</v>
-      </c>
-      <c r="O80" s="11">
-        <v>4</v>
-      </c>
-      <c r="P80" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="11">
-        <v>4</v>
-      </c>
-      <c r="R80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T80" s="11">
-        <v>4</v>
-      </c>
-      <c r="U80" s="11">
-        <v>4</v>
-      </c>
-      <c r="V80" s="11">
+      <c r="F80" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G80" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H80" s="15">
+        <v>4</v>
+      </c>
+      <c r="I80" s="19">
+        <v>4</v>
+      </c>
+      <c r="J80" s="15">
+        <v>4</v>
+      </c>
+      <c r="K80" s="19">
+        <v>4</v>
+      </c>
+      <c r="L80" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M80" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N80" s="15">
+        <v>4</v>
+      </c>
+      <c r="O80" s="19">
+        <v>4</v>
+      </c>
+      <c r="P80" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>4</v>
+      </c>
+      <c r="R80" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S80" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T80" s="15">
+        <v>4</v>
+      </c>
+      <c r="U80" s="19">
+        <v>4</v>
+      </c>
+      <c r="V80" s="15">
         <v>6</v>
       </c>
-      <c r="W80" s="11">
+      <c r="W80" s="19">
         <v>6</v>
       </c>
-      <c r="X80" s="12" t="s">
+      <c r="X80" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4772,58 +4805,58 @@
       <c r="E81" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>21</v>
+      <c r="F81" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G81" s="19">
+        <v>59.881</v>
       </c>
       <c r="H81" s="9">
         <v>4</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="19">
         <v>4</v>
       </c>
       <c r="J81" s="9">
         <v>4</v>
       </c>
-      <c r="K81" s="9">
-        <v>4</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>21</v>
+      <c r="K81" s="19">
+        <v>4</v>
+      </c>
+      <c r="L81" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M81" s="19">
+        <v>59.881</v>
       </c>
       <c r="N81" s="9">
         <v>4</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O81" s="19">
         <v>4</v>
       </c>
       <c r="P81" s="9">
         <v>4</v>
       </c>
-      <c r="Q81" s="9">
-        <v>4</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>21</v>
+      <c r="Q81" s="19">
+        <v>4</v>
+      </c>
+      <c r="R81" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S81" s="19">
+        <v>63.993</v>
       </c>
       <c r="T81" s="9">
         <v>4</v>
       </c>
-      <c r="U81" s="9">
+      <c r="U81" s="19">
         <v>4</v>
       </c>
       <c r="V81" s="9">
         <v>6</v>
       </c>
-      <c r="W81" s="9">
+      <c r="W81" s="19">
         <v>6</v>
       </c>
       <c r="X81" s="10" t="s">
@@ -4831,76 +4864,76 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="11">
-        <v>4</v>
-      </c>
-      <c r="I82" s="11">
-        <v>4</v>
-      </c>
-      <c r="J82" s="11">
-        <v>4</v>
-      </c>
-      <c r="K82" s="11">
-        <v>4</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N82" s="11">
-        <v>4</v>
-      </c>
-      <c r="O82" s="11">
-        <v>4</v>
-      </c>
-      <c r="P82" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q82" s="11">
-        <v>4</v>
-      </c>
-      <c r="R82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T82" s="11">
-        <v>4</v>
-      </c>
-      <c r="U82" s="11">
-        <v>4</v>
-      </c>
-      <c r="V82" s="11">
+      <c r="F82" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G82" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="H82" s="15">
+        <v>4</v>
+      </c>
+      <c r="I82" s="19">
+        <v>4</v>
+      </c>
+      <c r="J82" s="15">
+        <v>4</v>
+      </c>
+      <c r="K82" s="19">
+        <v>4</v>
+      </c>
+      <c r="L82" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M82" s="19">
+        <v>59.881</v>
+      </c>
+      <c r="N82" s="15">
+        <v>4</v>
+      </c>
+      <c r="O82" s="19">
+        <v>4</v>
+      </c>
+      <c r="P82" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>4</v>
+      </c>
+      <c r="R82" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S82" s="19">
+        <v>63.993</v>
+      </c>
+      <c r="T82" s="15">
+        <v>4</v>
+      </c>
+      <c r="U82" s="19">
+        <v>4</v>
+      </c>
+      <c r="V82" s="15">
         <v>6</v>
       </c>
-      <c r="W82" s="11">
+      <c r="W82" s="19">
         <v>6</v>
       </c>
-      <c r="X82" s="12" t="s">
+      <c r="X82" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4920,66 +4953,272 @@
       <c r="E83" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>21</v>
+      <c r="F83" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="G83" s="19">
+        <v>59.881</v>
       </c>
       <c r="H83" s="9">
         <v>4</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="19">
         <v>4</v>
       </c>
       <c r="J83" s="9">
         <v>4</v>
       </c>
-      <c r="K83" s="9">
-        <v>4</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>21</v>
+      <c r="K83" s="19">
+        <v>4</v>
+      </c>
+      <c r="L83" s="19">
+        <v>4.369</v>
+      </c>
+      <c r="M83" s="19">
+        <v>59.881</v>
       </c>
       <c r="N83" s="9">
         <v>4</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O83" s="19">
         <v>4</v>
       </c>
       <c r="P83" s="9">
         <v>4</v>
       </c>
-      <c r="Q83" s="9">
-        <v>4</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S83" s="9" t="s">
-        <v>21</v>
+      <c r="Q83" s="19">
+        <v>4</v>
+      </c>
+      <c r="R83" s="19">
+        <v>20.817</v>
+      </c>
+      <c r="S83" s="19">
+        <v>63.993</v>
       </c>
       <c r="T83" s="9">
         <v>4</v>
       </c>
-      <c r="U83" s="9">
+      <c r="U83" s="19">
         <v>4</v>
       </c>
       <c r="V83" s="9">
         <v>6</v>
       </c>
-      <c r="W83" s="9">
+      <c r="W83" s="19">
         <v>6</v>
       </c>
       <c r="X83" s="10" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="84" spans="1:24">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M85" s="17"/>
+      <c r="N85" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="8"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H88" s="15">
+        <v>1</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1</v>
+      </c>
+      <c r="J88" s="15">
+        <v>1</v>
+      </c>
+      <c r="K88" s="15">
+        <v>1</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="15">
+        <v>1</v>
+      </c>
+      <c r="O88" s="15">
+        <v>1</v>
+      </c>
+      <c r="P88" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="15">
+        <v>1</v>
+      </c>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="110">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -5078,6 +5317,18 @@
     <mergeCell ref="T67:U67"/>
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="A65:E68"/>
+    <mergeCell ref="F84:K84"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L84:Q84"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R84:W88"/>
+    <mergeCell ref="A84:E87"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Reports/Report.xlsx
+++ b/Reports/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="128">
   <si>
     <t>Дата проверки</t>
   </si>
@@ -76,12 +76,12 @@
     <t>DIGN_XP1_7</t>
   </si>
   <si>
-    <t>Привет, у этого кабеля всё плохо. Он сломан Сломанно A6 и вообще Vnh Как быв не понятно ткак сейчас тработает а это текст для теста</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -373,12 +373,15 @@
     <t>HBRO_XP3_7</t>
   </si>
   <si>
+    <t>HBRO_XP3_10</t>
+  </si>
+  <si>
+    <t>HLD</t>
+  </si>
+  <si>
     <t>HBRO_XP3_9</t>
   </si>
   <si>
-    <t>HBRO_XP3_10</t>
-  </si>
-  <si>
     <t>HBRO_XP3_11</t>
   </si>
   <si>
@@ -395,15 +398,6 @@
   </si>
   <si>
     <t>DM_TEST_XP4_8</t>
-  </si>
-  <si>
-    <t>HLD</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,16 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CC770"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8686"/>
       </patternFill>
     </fill>
     <fill>
@@ -479,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,28 +489,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X88"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +807,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4">
-        <v>45707</v>
+        <v>45721</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -849,7 +819,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6">
-        <v>0.619126261574074</v>
+        <v>0.63208556712963</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -968,14 +938,14 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="14"/>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -995,29 +965,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="14"/>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1032,7 +1002,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1052,14 +1022,14 @@
       <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="14"/>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1079,29 +1049,29 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="14"/>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1116,7 +1086,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="16" t="s">
+      <c r="X13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1136,14 +1106,14 @@
       <c r="E14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="14"/>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1163,29 +1133,29 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="14"/>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1200,7 +1170,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1220,14 +1190,14 @@
       <c r="E16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="14"/>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1247,29 +1217,29 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="14"/>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1284,7 +1254,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="16" t="s">
+      <c r="X17" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1304,14 +1274,14 @@
       <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="14"/>
+      <c r="F18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1331,29 +1301,29 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="14"/>
+      <c r="F19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1368,7 +1338,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1388,14 +1358,14 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="14"/>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1415,29 +1385,29 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="14"/>
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1452,7 +1422,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="16" t="s">
+      <c r="X21" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1472,14 +1442,14 @@
       <c r="E22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="14"/>
+      <c r="F22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1499,29 +1469,29 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="14"/>
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1536,7 +1506,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="16" t="s">
+      <c r="X23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1575,18 +1545,18 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="8" t="s">
         <v>50</v>
       </c>
@@ -1608,16 +1578,16 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="8" t="s">
         <v>51</v>
       </c>
@@ -1651,25 +1621,25 @@
       <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="18">
-        <v>17</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>20</v>
-      </c>
-      <c r="J27" s="18">
-        <v>233</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="9">
-        <v>230</v>
-      </c>
-      <c r="M27" s="9">
-        <v>250</v>
+      <c r="F27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -1686,40 +1656,40 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="19">
-        <v>17</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="15">
-        <v>4</v>
-      </c>
-      <c r="I28" s="19">
-        <v>4</v>
-      </c>
-      <c r="J28" s="19">
-        <v>233</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="15">
-        <v>5</v>
-      </c>
-      <c r="M28" s="19">
-        <v>5</v>
+      <c r="F28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -1731,7 +1701,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="16" t="s">
+      <c r="X28" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1751,25 +1721,25 @@
       <c r="E29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="19">
-        <v>17</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="9">
-        <v>4</v>
-      </c>
-      <c r="I29" s="19">
-        <v>6</v>
-      </c>
-      <c r="J29" s="19">
-        <v>233</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="9">
-        <v>7</v>
-      </c>
-      <c r="M29" s="19">
-        <v>6</v>
+      <c r="F29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -1786,40 +1756,40 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="19">
-        <v>17</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="15">
-        <v>4</v>
-      </c>
-      <c r="I30" s="19">
-        <v>4</v>
-      </c>
-      <c r="J30" s="19">
-        <v>233</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="15">
-        <v>6</v>
-      </c>
-      <c r="M30" s="19">
-        <v>6</v>
+      <c r="F30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -1831,7 +1801,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="16" t="s">
+      <c r="X30" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1870,20 +1840,20 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="17"/>
+      <c r="M32" s="13"/>
       <c r="N32" s="8" t="s">
         <v>50</v>
       </c>
@@ -1903,8 +1873,8 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1913,8 +1883,8 @@
         <v>64</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
       <c r="N33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1995,40 +1965,40 @@
       <c r="E35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G35" s="19">
-        <v>59.881</v>
+      <c r="F35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H35" s="9">
         <v>4</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="9">
         <v>4</v>
       </c>
       <c r="J35" s="9">
         <v>4</v>
       </c>
-      <c r="K35" s="19">
-        <v>4</v>
-      </c>
-      <c r="L35" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M35" s="19">
-        <v>63.993</v>
+      <c r="K35" s="9">
+        <v>4</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N35" s="9">
         <v>4</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="9">
         <v>4</v>
       </c>
       <c r="P35" s="9">
         <v>4</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="9">
         <v>4</v>
       </c>
       <c r="R35" s="7"/>
@@ -2042,55 +2012,55 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G36" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H36" s="15">
-        <v>4</v>
-      </c>
-      <c r="I36" s="19">
-        <v>4</v>
-      </c>
-      <c r="J36" s="15">
-        <v>4</v>
-      </c>
-      <c r="K36" s="19">
-        <v>4</v>
-      </c>
-      <c r="L36" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M36" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N36" s="15">
-        <v>4</v>
-      </c>
-      <c r="O36" s="19">
-        <v>4</v>
-      </c>
-      <c r="P36" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="19">
+      <c r="F36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11">
+        <v>4</v>
+      </c>
+      <c r="J36" s="11">
+        <v>4</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="11">
+        <v>4</v>
+      </c>
+      <c r="O36" s="11">
+        <v>4</v>
+      </c>
+      <c r="P36" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="11">
         <v>4</v>
       </c>
       <c r="R36" s="7"/>
@@ -2099,7 +2069,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="16" t="s">
+      <c r="X36" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2119,40 +2089,40 @@
       <c r="E37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G37" s="19">
-        <v>59.881</v>
+      <c r="F37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H37" s="9">
         <v>4</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="9">
         <v>4</v>
       </c>
       <c r="J37" s="9">
         <v>4</v>
       </c>
-      <c r="K37" s="19">
-        <v>4</v>
-      </c>
-      <c r="L37" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M37" s="19">
-        <v>63.993</v>
+      <c r="K37" s="9">
+        <v>4</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N37" s="9">
         <v>4</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="9">
         <v>4</v>
       </c>
       <c r="P37" s="9">
         <v>4</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="9">
         <v>4</v>
       </c>
       <c r="R37" s="7"/>
@@ -2166,55 +2136,55 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G38" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H38" s="15">
-        <v>4</v>
-      </c>
-      <c r="I38" s="19">
-        <v>4</v>
-      </c>
-      <c r="J38" s="15">
-        <v>4</v>
-      </c>
-      <c r="K38" s="19">
-        <v>4</v>
-      </c>
-      <c r="L38" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M38" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N38" s="15">
-        <v>4</v>
-      </c>
-      <c r="O38" s="19">
-        <v>4</v>
-      </c>
-      <c r="P38" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="19">
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="11">
+        <v>4</v>
+      </c>
+      <c r="I38" s="11">
+        <v>4</v>
+      </c>
+      <c r="J38" s="11">
+        <v>4</v>
+      </c>
+      <c r="K38" s="11">
+        <v>4</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="11">
+        <v>4</v>
+      </c>
+      <c r="O38" s="11">
+        <v>4</v>
+      </c>
+      <c r="P38" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="11">
         <v>4</v>
       </c>
       <c r="R38" s="7"/>
@@ -2223,7 +2193,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="16" t="s">
+      <c r="X38" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2243,40 +2213,40 @@
       <c r="E39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G39" s="19">
-        <v>59.881</v>
+      <c r="F39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H39" s="9">
         <v>4</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="9">
         <v>4</v>
       </c>
       <c r="J39" s="9">
         <v>4</v>
       </c>
-      <c r="K39" s="19">
-        <v>4</v>
-      </c>
-      <c r="L39" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M39" s="19">
-        <v>63.993</v>
+      <c r="K39" s="9">
+        <v>4</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N39" s="9">
         <v>4</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="9">
         <v>4</v>
       </c>
       <c r="P39" s="9">
         <v>4</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="9">
         <v>4</v>
       </c>
       <c r="R39" s="7"/>
@@ -2290,55 +2260,55 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G40" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H40" s="15">
-        <v>4</v>
-      </c>
-      <c r="I40" s="19">
-        <v>4</v>
-      </c>
-      <c r="J40" s="15">
-        <v>4</v>
-      </c>
-      <c r="K40" s="19">
-        <v>4</v>
-      </c>
-      <c r="L40" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M40" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N40" s="15">
-        <v>4</v>
-      </c>
-      <c r="O40" s="19">
-        <v>4</v>
-      </c>
-      <c r="P40" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="19">
+      <c r="F40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="11">
+        <v>4</v>
+      </c>
+      <c r="I40" s="11">
+        <v>4</v>
+      </c>
+      <c r="J40" s="11">
+        <v>4</v>
+      </c>
+      <c r="K40" s="11">
+        <v>4</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="11">
+        <v>4</v>
+      </c>
+      <c r="O40" s="11">
+        <v>4</v>
+      </c>
+      <c r="P40" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="11">
         <v>4</v>
       </c>
       <c r="R40" s="7"/>
@@ -2347,7 +2317,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="16" t="s">
+      <c r="X40" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2367,40 +2337,40 @@
       <c r="E41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G41" s="19">
-        <v>59.881</v>
+      <c r="F41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H41" s="9">
         <v>4</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="9">
         <v>4</v>
       </c>
       <c r="J41" s="9">
         <v>4</v>
       </c>
-      <c r="K41" s="19">
-        <v>4</v>
-      </c>
-      <c r="L41" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M41" s="19">
-        <v>63.993</v>
+      <c r="K41" s="9">
+        <v>4</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N41" s="9">
         <v>4</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="9">
         <v>4</v>
       </c>
       <c r="P41" s="9">
         <v>4</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="9">
         <v>4</v>
       </c>
       <c r="R41" s="7"/>
@@ -2414,55 +2384,55 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G42" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H42" s="15">
-        <v>4</v>
-      </c>
-      <c r="I42" s="19">
-        <v>4</v>
-      </c>
-      <c r="J42" s="15">
-        <v>4</v>
-      </c>
-      <c r="K42" s="19">
-        <v>4</v>
-      </c>
-      <c r="L42" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M42" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N42" s="15">
-        <v>4</v>
-      </c>
-      <c r="O42" s="19">
-        <v>4</v>
-      </c>
-      <c r="P42" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="19">
+      <c r="F42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="11">
+        <v>4</v>
+      </c>
+      <c r="I42" s="11">
+        <v>4</v>
+      </c>
+      <c r="J42" s="11">
+        <v>4</v>
+      </c>
+      <c r="K42" s="11">
+        <v>4</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="11">
+        <v>4</v>
+      </c>
+      <c r="O42" s="11">
+        <v>4</v>
+      </c>
+      <c r="P42" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="11">
         <v>4</v>
       </c>
       <c r="R42" s="7"/>
@@ -2471,7 +2441,7 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="16" t="s">
+      <c r="X42" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2491,40 +2461,40 @@
       <c r="E43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G43" s="19">
-        <v>59.881</v>
+      <c r="F43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="9">
         <v>4</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="9">
         <v>4</v>
       </c>
       <c r="J43" s="9">
         <v>4</v>
       </c>
-      <c r="K43" s="19">
-        <v>4</v>
-      </c>
-      <c r="L43" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M43" s="19">
-        <v>63.993</v>
+      <c r="K43" s="9">
+        <v>4</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N43" s="9">
         <v>4</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="9">
         <v>4</v>
       </c>
       <c r="P43" s="9">
         <v>4</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="9">
         <v>4</v>
       </c>
       <c r="R43" s="7"/>
@@ -2538,55 +2508,55 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G44" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H44" s="15">
-        <v>4</v>
-      </c>
-      <c r="I44" s="19">
-        <v>4</v>
-      </c>
-      <c r="J44" s="15">
-        <v>4</v>
-      </c>
-      <c r="K44" s="19">
-        <v>4</v>
-      </c>
-      <c r="L44" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M44" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N44" s="15">
-        <v>4</v>
-      </c>
-      <c r="O44" s="19">
-        <v>4</v>
-      </c>
-      <c r="P44" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="19">
+      <c r="F44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="11">
+        <v>4</v>
+      </c>
+      <c r="I44" s="11">
+        <v>4</v>
+      </c>
+      <c r="J44" s="11">
+        <v>4</v>
+      </c>
+      <c r="K44" s="11">
+        <v>4</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="11">
+        <v>4</v>
+      </c>
+      <c r="O44" s="11">
+        <v>4</v>
+      </c>
+      <c r="P44" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="11">
         <v>4</v>
       </c>
       <c r="R44" s="7"/>
@@ -2595,7 +2565,7 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="16" t="s">
+      <c r="X44" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2615,40 +2585,40 @@
       <c r="E45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G45" s="19">
-        <v>59.881</v>
+      <c r="F45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H45" s="9">
         <v>4</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="9">
         <v>4</v>
       </c>
       <c r="J45" s="9">
         <v>4</v>
       </c>
-      <c r="K45" s="19">
-        <v>4</v>
-      </c>
-      <c r="L45" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M45" s="19">
-        <v>63.993</v>
+      <c r="K45" s="9">
+        <v>4</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N45" s="9">
         <v>4</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="9">
         <v>4</v>
       </c>
       <c r="P45" s="9">
         <v>4</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="9">
         <v>4</v>
       </c>
       <c r="R45" s="7"/>
@@ -2662,55 +2632,55 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G46" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H46" s="15">
-        <v>4</v>
-      </c>
-      <c r="I46" s="19">
-        <v>4</v>
-      </c>
-      <c r="J46" s="15">
-        <v>4</v>
-      </c>
-      <c r="K46" s="19">
-        <v>4</v>
-      </c>
-      <c r="L46" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M46" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N46" s="15">
-        <v>4</v>
-      </c>
-      <c r="O46" s="19">
-        <v>4</v>
-      </c>
-      <c r="P46" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="19">
+      <c r="F46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4</v>
+      </c>
+      <c r="I46" s="11">
+        <v>4</v>
+      </c>
+      <c r="J46" s="11">
+        <v>4</v>
+      </c>
+      <c r="K46" s="11">
+        <v>4</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="11">
+        <v>4</v>
+      </c>
+      <c r="O46" s="11">
+        <v>4</v>
+      </c>
+      <c r="P46" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="11">
         <v>4</v>
       </c>
       <c r="R46" s="7"/>
@@ -2719,7 +2689,7 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="16" t="s">
+      <c r="X46" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2739,40 +2709,40 @@
       <c r="E47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G47" s="19">
-        <v>59.881</v>
+      <c r="F47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H47" s="9">
         <v>4</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="9">
         <v>4</v>
       </c>
       <c r="J47" s="9">
         <v>4</v>
       </c>
-      <c r="K47" s="19">
-        <v>4</v>
-      </c>
-      <c r="L47" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M47" s="19">
-        <v>63.993</v>
+      <c r="K47" s="9">
+        <v>4</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N47" s="9">
         <v>4</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="9">
         <v>4</v>
       </c>
       <c r="P47" s="9">
         <v>4</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="9">
         <v>4</v>
       </c>
       <c r="R47" s="7"/>
@@ -2786,55 +2756,55 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G48" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H48" s="15">
-        <v>4</v>
-      </c>
-      <c r="I48" s="19">
-        <v>4</v>
-      </c>
-      <c r="J48" s="15">
-        <v>4</v>
-      </c>
-      <c r="K48" s="19">
-        <v>4</v>
-      </c>
-      <c r="L48" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M48" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N48" s="15">
-        <v>4</v>
-      </c>
-      <c r="O48" s="19">
-        <v>4</v>
-      </c>
-      <c r="P48" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="19">
+      <c r="F48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="11">
+        <v>4</v>
+      </c>
+      <c r="I48" s="11">
+        <v>4</v>
+      </c>
+      <c r="J48" s="11">
+        <v>4</v>
+      </c>
+      <c r="K48" s="11">
+        <v>4</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="11">
+        <v>4</v>
+      </c>
+      <c r="O48" s="11">
+        <v>4</v>
+      </c>
+      <c r="P48" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="11">
         <v>4</v>
       </c>
       <c r="R48" s="7"/>
@@ -2843,7 +2813,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
-      <c r="X48" s="16" t="s">
+      <c r="X48" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2863,40 +2833,40 @@
       <c r="E49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G49" s="19">
-        <v>59.881</v>
+      <c r="F49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H49" s="9">
         <v>4</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="9">
         <v>4</v>
       </c>
       <c r="J49" s="9">
         <v>4</v>
       </c>
-      <c r="K49" s="19">
-        <v>4</v>
-      </c>
-      <c r="L49" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M49" s="19">
-        <v>63.993</v>
+      <c r="K49" s="9">
+        <v>4</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N49" s="9">
         <v>4</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="9">
         <v>4</v>
       </c>
       <c r="P49" s="9">
         <v>4</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="9">
         <v>4</v>
       </c>
       <c r="R49" s="7"/>
@@ -2910,55 +2880,55 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G50" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H50" s="15">
-        <v>4</v>
-      </c>
-      <c r="I50" s="19">
-        <v>4</v>
-      </c>
-      <c r="J50" s="15">
-        <v>4</v>
-      </c>
-      <c r="K50" s="19">
-        <v>4</v>
-      </c>
-      <c r="L50" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M50" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N50" s="15">
-        <v>4</v>
-      </c>
-      <c r="O50" s="19">
-        <v>4</v>
-      </c>
-      <c r="P50" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="19">
+      <c r="F50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="11">
+        <v>4</v>
+      </c>
+      <c r="I50" s="11">
+        <v>4</v>
+      </c>
+      <c r="J50" s="11">
+        <v>4</v>
+      </c>
+      <c r="K50" s="11">
+        <v>4</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="11">
+        <v>4</v>
+      </c>
+      <c r="O50" s="11">
+        <v>4</v>
+      </c>
+      <c r="P50" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="11">
         <v>4</v>
       </c>
       <c r="R50" s="7"/>
@@ -2967,7 +2937,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="16" t="s">
+      <c r="X50" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2987,40 +2957,40 @@
       <c r="E51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G51" s="19">
-        <v>59.881</v>
+      <c r="F51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H51" s="9">
         <v>4</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="9">
         <v>4</v>
       </c>
       <c r="J51" s="9">
         <v>4</v>
       </c>
-      <c r="K51" s="19">
-        <v>4</v>
-      </c>
-      <c r="L51" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M51" s="19">
-        <v>63.993</v>
+      <c r="K51" s="9">
+        <v>4</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N51" s="9">
         <v>4</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O51" s="9">
         <v>4</v>
       </c>
       <c r="P51" s="9">
         <v>4</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="9">
         <v>4</v>
       </c>
       <c r="R51" s="7"/>
@@ -3034,55 +3004,55 @@
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G52" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H52" s="15">
-        <v>4</v>
-      </c>
-      <c r="I52" s="19">
-        <v>4</v>
-      </c>
-      <c r="J52" s="15">
-        <v>4</v>
-      </c>
-      <c r="K52" s="19">
-        <v>4</v>
-      </c>
-      <c r="L52" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M52" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N52" s="15">
-        <v>4</v>
-      </c>
-      <c r="O52" s="19">
-        <v>4</v>
-      </c>
-      <c r="P52" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="19">
+      <c r="F52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="11">
+        <v>4</v>
+      </c>
+      <c r="I52" s="11">
+        <v>4</v>
+      </c>
+      <c r="J52" s="11">
+        <v>4</v>
+      </c>
+      <c r="K52" s="11">
+        <v>4</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="11">
+        <v>4</v>
+      </c>
+      <c r="O52" s="11">
+        <v>4</v>
+      </c>
+      <c r="P52" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="11">
         <v>4</v>
       </c>
       <c r="R52" s="7"/>
@@ -3091,7 +3061,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
-      <c r="X52" s="16" t="s">
+      <c r="X52" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3111,40 +3081,40 @@
       <c r="E53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G53" s="19">
-        <v>59.881</v>
+      <c r="F53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H53" s="9">
         <v>4</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="9">
         <v>4</v>
       </c>
       <c r="J53" s="9">
         <v>4</v>
       </c>
-      <c r="K53" s="19">
-        <v>4</v>
-      </c>
-      <c r="L53" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M53" s="19">
-        <v>63.993</v>
+      <c r="K53" s="9">
+        <v>4</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N53" s="9">
         <v>4</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="9">
         <v>4</v>
       </c>
       <c r="P53" s="9">
         <v>4</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="9">
         <v>4</v>
       </c>
       <c r="R53" s="7"/>
@@ -3158,55 +3128,55 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G54" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H54" s="15">
-        <v>4</v>
-      </c>
-      <c r="I54" s="19">
-        <v>4</v>
-      </c>
-      <c r="J54" s="15">
-        <v>4</v>
-      </c>
-      <c r="K54" s="19">
-        <v>4</v>
-      </c>
-      <c r="L54" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M54" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N54" s="15">
-        <v>4</v>
-      </c>
-      <c r="O54" s="19">
-        <v>4</v>
-      </c>
-      <c r="P54" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="19">
+      <c r="F54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="11">
+        <v>4</v>
+      </c>
+      <c r="I54" s="11">
+        <v>4</v>
+      </c>
+      <c r="J54" s="11">
+        <v>4</v>
+      </c>
+      <c r="K54" s="11">
+        <v>4</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="11">
+        <v>4</v>
+      </c>
+      <c r="O54" s="11">
+        <v>4</v>
+      </c>
+      <c r="P54" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="11">
         <v>4</v>
       </c>
       <c r="R54" s="7"/>
@@ -3215,7 +3185,7 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="16" t="s">
+      <c r="X54" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3235,40 +3205,40 @@
       <c r="E55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G55" s="19">
-        <v>59.881</v>
+      <c r="F55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H55" s="9">
         <v>4</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="9">
         <v>4</v>
       </c>
       <c r="J55" s="9">
         <v>4</v>
       </c>
-      <c r="K55" s="19">
-        <v>4</v>
-      </c>
-      <c r="L55" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M55" s="19">
-        <v>63.993</v>
+      <c r="K55" s="9">
+        <v>4</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N55" s="9">
         <v>4</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O55" s="9">
         <v>4</v>
       </c>
       <c r="P55" s="9">
         <v>4</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="9">
         <v>4</v>
       </c>
       <c r="R55" s="7"/>
@@ -3316,20 +3286,20 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="17" t="s">
+      <c r="L57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="17"/>
+      <c r="M57" s="13"/>
       <c r="N57" s="8" t="s">
         <v>50</v>
       </c>
@@ -3349,8 +3319,8 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="8" t="s">
         <v>63</v>
       </c>
@@ -3359,8 +3329,8 @@
         <v>64</v>
       </c>
       <c r="K58" s="8"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
       <c r="N58" s="8" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3396,55 @@
       <c r="W59" s="7"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="19">
-        <v>0</v>
-      </c>
-      <c r="G60" s="19">
-        <v>0</v>
-      </c>
-      <c r="H60" s="19">
-        <v>1</v>
-      </c>
-      <c r="I60" s="15">
+      <c r="F60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="11">
+        <v>2</v>
+      </c>
+      <c r="I60" s="11">
         <v>10</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="11">
         <v>12</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="11">
         <v>70</v>
       </c>
-      <c r="L60" s="19">
-        <v>0</v>
-      </c>
-      <c r="M60" s="19">
-        <v>0</v>
-      </c>
-      <c r="N60" s="19">
+      <c r="L60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="11">
         <v>2</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O60" s="11">
         <v>25</v>
       </c>
-      <c r="P60" s="19">
+      <c r="P60" s="11">
         <v>40</v>
       </c>
-      <c r="Q60" s="15">
+      <c r="Q60" s="11">
         <v>70</v>
       </c>
       <c r="R60" s="7"/>
@@ -3483,7 +3453,7 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="16" t="s">
+      <c r="X60" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3503,40 +3473,40 @@
       <c r="E61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G61" s="19">
-        <v>59.881</v>
+      <c r="F61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H61" s="9">
         <v>4</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="9">
         <v>4</v>
       </c>
       <c r="J61" s="9">
         <v>4</v>
       </c>
-      <c r="K61" s="19">
-        <v>4</v>
-      </c>
-      <c r="L61" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M61" s="19">
-        <v>63.993</v>
+      <c r="K61" s="9">
+        <v>4</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N61" s="9">
         <v>4</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O61" s="9">
         <v>4</v>
       </c>
       <c r="P61" s="9">
         <v>4</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="Q61" s="9">
         <v>4</v>
       </c>
       <c r="R61" s="7"/>
@@ -3550,55 +3520,55 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G62" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H62" s="15">
-        <v>4</v>
-      </c>
-      <c r="I62" s="19">
-        <v>4</v>
-      </c>
-      <c r="J62" s="15">
-        <v>4</v>
-      </c>
-      <c r="K62" s="19">
-        <v>4</v>
-      </c>
-      <c r="L62" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M62" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N62" s="15">
-        <v>4</v>
-      </c>
-      <c r="O62" s="19">
-        <v>4</v>
-      </c>
-      <c r="P62" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="19">
+      <c r="F62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="11">
+        <v>4</v>
+      </c>
+      <c r="I62" s="11">
+        <v>4</v>
+      </c>
+      <c r="J62" s="11">
+        <v>4</v>
+      </c>
+      <c r="K62" s="11">
+        <v>4</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="11">
+        <v>4</v>
+      </c>
+      <c r="O62" s="11">
+        <v>4</v>
+      </c>
+      <c r="P62" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="11">
         <v>4</v>
       </c>
       <c r="R62" s="7"/>
@@ -3607,7 +3577,7 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
-      <c r="X62" s="16" t="s">
+      <c r="X62" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3627,40 +3597,40 @@
       <c r="E63" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G63" s="19">
-        <v>59.881</v>
+      <c r="F63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H63" s="9">
         <v>4</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="9">
         <v>4</v>
       </c>
       <c r="J63" s="9">
         <v>4</v>
       </c>
-      <c r="K63" s="19">
-        <v>4</v>
-      </c>
-      <c r="L63" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M63" s="19">
-        <v>63.993</v>
+      <c r="K63" s="9">
+        <v>4</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N63" s="9">
         <v>4</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O63" s="9">
         <v>4</v>
       </c>
       <c r="P63" s="9">
         <v>4</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="Q63" s="9">
         <v>4</v>
       </c>
       <c r="R63" s="7"/>
@@ -3674,55 +3644,55 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G64" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H64" s="15">
-        <v>4</v>
-      </c>
-      <c r="I64" s="19">
-        <v>4</v>
-      </c>
-      <c r="J64" s="15">
-        <v>4</v>
-      </c>
-      <c r="K64" s="19">
-        <v>4</v>
-      </c>
-      <c r="L64" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="M64" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="N64" s="15">
-        <v>4</v>
-      </c>
-      <c r="O64" s="19">
-        <v>4</v>
-      </c>
-      <c r="P64" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q64" s="19">
+      <c r="F64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="11">
+        <v>4</v>
+      </c>
+      <c r="I64" s="11">
+        <v>4</v>
+      </c>
+      <c r="J64" s="11">
+        <v>4</v>
+      </c>
+      <c r="K64" s="11">
+        <v>4</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="11">
+        <v>4</v>
+      </c>
+      <c r="O64" s="11">
+        <v>4</v>
+      </c>
+      <c r="P64" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="11">
         <v>4</v>
       </c>
       <c r="R64" s="7"/>
@@ -3731,7 +3701,7 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
-      <c r="X64" s="16" t="s">
+      <c r="X64" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3772,30 +3742,30 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="17"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="17" t="s">
+      <c r="L66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M66" s="17"/>
+      <c r="M66" s="13"/>
       <c r="N66" s="8" t="s">
         <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="17" t="s">
+      <c r="R66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S66" s="17"/>
+      <c r="S66" s="13"/>
       <c r="T66" s="8" t="s">
         <v>50</v>
       </c>
@@ -3809,8 +3779,8 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3819,8 +3789,8 @@
         <v>64</v>
       </c>
       <c r="K67" s="8"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
       <c r="N67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3829,8 +3799,8 @@
         <v>64</v>
       </c>
       <c r="Q67" s="8"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
       <c r="T67" s="8" t="s">
         <v>63</v>
       </c>
@@ -3917,58 +3887,58 @@
       <c r="E69" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G69" s="19">
-        <v>59.881</v>
+      <c r="F69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H69" s="9">
         <v>4</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="9">
         <v>4</v>
       </c>
       <c r="J69" s="9">
         <v>4</v>
       </c>
-      <c r="K69" s="19">
-        <v>4</v>
-      </c>
-      <c r="L69" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M69" s="19">
-        <v>59.881</v>
+      <c r="K69" s="9">
+        <v>4</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N69" s="9">
         <v>4</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="9">
         <v>4</v>
       </c>
       <c r="P69" s="9">
         <v>4</v>
       </c>
-      <c r="Q69" s="19">
-        <v>4</v>
-      </c>
-      <c r="R69" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S69" s="19">
-        <v>63.993</v>
+      <c r="Q69" s="9">
+        <v>4</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T69" s="9">
         <v>4</v>
       </c>
-      <c r="U69" s="19">
+      <c r="U69" s="9">
         <v>4</v>
       </c>
       <c r="V69" s="9">
         <v>4</v>
       </c>
-      <c r="W69" s="19">
+      <c r="W69" s="9">
         <v>4</v>
       </c>
       <c r="X69" s="10" t="s">
@@ -3976,76 +3946,76 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G70" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H70" s="15">
-        <v>4</v>
-      </c>
-      <c r="I70" s="19">
-        <v>4</v>
-      </c>
-      <c r="J70" s="15">
-        <v>4</v>
-      </c>
-      <c r="K70" s="19">
-        <v>4</v>
-      </c>
-      <c r="L70" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M70" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N70" s="15">
-        <v>4</v>
-      </c>
-      <c r="O70" s="19">
-        <v>4</v>
-      </c>
-      <c r="P70" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q70" s="19">
-        <v>4</v>
-      </c>
-      <c r="R70" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S70" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T70" s="15">
-        <v>4</v>
-      </c>
-      <c r="U70" s="19">
-        <v>4</v>
-      </c>
-      <c r="V70" s="15">
-        <v>4</v>
-      </c>
-      <c r="W70" s="19">
-        <v>4</v>
-      </c>
-      <c r="X70" s="16" t="s">
+      <c r="F70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="11">
+        <v>4</v>
+      </c>
+      <c r="I70" s="11">
+        <v>4</v>
+      </c>
+      <c r="J70" s="11">
+        <v>4</v>
+      </c>
+      <c r="K70" s="11">
+        <v>4</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="11">
+        <v>4</v>
+      </c>
+      <c r="O70" s="11">
+        <v>4</v>
+      </c>
+      <c r="P70" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>4</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="11">
+        <v>4</v>
+      </c>
+      <c r="U70" s="11">
+        <v>4</v>
+      </c>
+      <c r="V70" s="11">
+        <v>4</v>
+      </c>
+      <c r="W70" s="11">
+        <v>4</v>
+      </c>
+      <c r="X70" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4065,58 +4035,58 @@
       <c r="E71" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G71" s="19">
-        <v>59.881</v>
+      <c r="F71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H71" s="9">
         <v>4</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="9">
         <v>4</v>
       </c>
       <c r="J71" s="9">
         <v>4</v>
       </c>
-      <c r="K71" s="19">
-        <v>4</v>
-      </c>
-      <c r="L71" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M71" s="19">
-        <v>59.881</v>
+      <c r="K71" s="9">
+        <v>4</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N71" s="9">
         <v>4</v>
       </c>
-      <c r="O71" s="19">
+      <c r="O71" s="9">
         <v>4</v>
       </c>
       <c r="P71" s="9">
         <v>4</v>
       </c>
-      <c r="Q71" s="19">
-        <v>4</v>
-      </c>
-      <c r="R71" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S71" s="19">
-        <v>63.993</v>
+      <c r="Q71" s="9">
+        <v>4</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T71" s="9">
         <v>4</v>
       </c>
-      <c r="U71" s="19">
+      <c r="U71" s="9">
         <v>4</v>
       </c>
       <c r="V71" s="9">
         <v>4</v>
       </c>
-      <c r="W71" s="19">
+      <c r="W71" s="9">
         <v>4</v>
       </c>
       <c r="X71" s="10" t="s">
@@ -4124,76 +4094,76 @@
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G72" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H72" s="15">
-        <v>4</v>
-      </c>
-      <c r="I72" s="19">
-        <v>4</v>
-      </c>
-      <c r="J72" s="15">
-        <v>4</v>
-      </c>
-      <c r="K72" s="19">
-        <v>4</v>
-      </c>
-      <c r="L72" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M72" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N72" s="15">
-        <v>4</v>
-      </c>
-      <c r="O72" s="19">
-        <v>4</v>
-      </c>
-      <c r="P72" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="19">
-        <v>4</v>
-      </c>
-      <c r="R72" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S72" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T72" s="15">
-        <v>4</v>
-      </c>
-      <c r="U72" s="19">
-        <v>4</v>
-      </c>
-      <c r="V72" s="15">
-        <v>4</v>
-      </c>
-      <c r="W72" s="19">
-        <v>4</v>
-      </c>
-      <c r="X72" s="16" t="s">
+      <c r="F72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="11">
+        <v>4</v>
+      </c>
+      <c r="I72" s="11">
+        <v>4</v>
+      </c>
+      <c r="J72" s="11">
+        <v>4</v>
+      </c>
+      <c r="K72" s="11">
+        <v>4</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="11">
+        <v>4</v>
+      </c>
+      <c r="O72" s="11">
+        <v>4</v>
+      </c>
+      <c r="P72" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>4</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="11">
+        <v>4</v>
+      </c>
+      <c r="U72" s="11">
+        <v>4</v>
+      </c>
+      <c r="V72" s="11">
+        <v>4</v>
+      </c>
+      <c r="W72" s="11">
+        <v>4</v>
+      </c>
+      <c r="X72" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4213,58 +4183,58 @@
       <c r="E73" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G73" s="19">
-        <v>59.881</v>
+      <c r="F73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H73" s="9">
         <v>4</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="9">
         <v>4</v>
       </c>
       <c r="J73" s="9">
         <v>4</v>
       </c>
-      <c r="K73" s="19">
-        <v>4</v>
-      </c>
-      <c r="L73" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M73" s="19">
-        <v>59.881</v>
+      <c r="K73" s="9">
+        <v>4</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N73" s="9">
         <v>4</v>
       </c>
-      <c r="O73" s="19">
+      <c r="O73" s="9">
         <v>4</v>
       </c>
       <c r="P73" s="9">
         <v>4</v>
       </c>
-      <c r="Q73" s="19">
-        <v>4</v>
-      </c>
-      <c r="R73" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S73" s="19">
-        <v>63.993</v>
+      <c r="Q73" s="9">
+        <v>4</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T73" s="9">
         <v>4</v>
       </c>
-      <c r="U73" s="19">
+      <c r="U73" s="9">
         <v>4</v>
       </c>
       <c r="V73" s="9">
         <v>4</v>
       </c>
-      <c r="W73" s="19">
+      <c r="W73" s="9">
         <v>4</v>
       </c>
       <c r="X73" s="10" t="s">
@@ -4272,76 +4242,76 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G74" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H74" s="15">
-        <v>4</v>
-      </c>
-      <c r="I74" s="19">
-        <v>4</v>
-      </c>
-      <c r="J74" s="15">
-        <v>4</v>
-      </c>
-      <c r="K74" s="19">
-        <v>4</v>
-      </c>
-      <c r="L74" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M74" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N74" s="15">
-        <v>4</v>
-      </c>
-      <c r="O74" s="19">
-        <v>4</v>
-      </c>
-      <c r="P74" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q74" s="19">
-        <v>4</v>
-      </c>
-      <c r="R74" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S74" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T74" s="15">
-        <v>4</v>
-      </c>
-      <c r="U74" s="19">
-        <v>4</v>
-      </c>
-      <c r="V74" s="15">
-        <v>4</v>
-      </c>
-      <c r="W74" s="19">
-        <v>4</v>
-      </c>
-      <c r="X74" s="16" t="s">
+      <c r="F74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="11">
+        <v>4</v>
+      </c>
+      <c r="I74" s="11">
+        <v>4</v>
+      </c>
+      <c r="J74" s="11">
+        <v>4</v>
+      </c>
+      <c r="K74" s="11">
+        <v>4</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="11">
+        <v>4</v>
+      </c>
+      <c r="O74" s="11">
+        <v>4</v>
+      </c>
+      <c r="P74" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>4</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="11">
+        <v>4</v>
+      </c>
+      <c r="U74" s="11">
+        <v>4</v>
+      </c>
+      <c r="V74" s="11">
+        <v>4</v>
+      </c>
+      <c r="W74" s="11">
+        <v>4</v>
+      </c>
+      <c r="X74" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4361,58 +4331,58 @@
       <c r="E75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G75" s="19">
-        <v>59.881</v>
+      <c r="F75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H75" s="9">
         <v>4</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="9">
         <v>4</v>
       </c>
       <c r="J75" s="9">
         <v>4</v>
       </c>
-      <c r="K75" s="19">
-        <v>4</v>
-      </c>
-      <c r="L75" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M75" s="19">
-        <v>59.881</v>
+      <c r="K75" s="9">
+        <v>4</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N75" s="9">
         <v>4</v>
       </c>
-      <c r="O75" s="19">
+      <c r="O75" s="9">
         <v>4</v>
       </c>
       <c r="P75" s="9">
         <v>4</v>
       </c>
-      <c r="Q75" s="19">
-        <v>4</v>
-      </c>
-      <c r="R75" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S75" s="19">
-        <v>63.993</v>
+      <c r="Q75" s="9">
+        <v>4</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T75" s="9">
         <v>4</v>
       </c>
-      <c r="U75" s="19">
+      <c r="U75" s="9">
         <v>4</v>
       </c>
       <c r="V75" s="9">
         <v>4</v>
       </c>
-      <c r="W75" s="19">
+      <c r="W75" s="9">
         <v>4</v>
       </c>
       <c r="X75" s="10" t="s">
@@ -4420,443 +4390,313 @@
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G76" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H76" s="15">
-        <v>4</v>
-      </c>
-      <c r="I76" s="19">
-        <v>4</v>
-      </c>
-      <c r="J76" s="15">
-        <v>4</v>
-      </c>
-      <c r="K76" s="19">
-        <v>4</v>
-      </c>
-      <c r="L76" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M76" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N76" s="15">
-        <v>4</v>
-      </c>
-      <c r="O76" s="19">
-        <v>4</v>
-      </c>
-      <c r="P76" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="19">
-        <v>4</v>
-      </c>
-      <c r="R76" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S76" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T76" s="15">
-        <v>4</v>
-      </c>
-      <c r="U76" s="19">
-        <v>4</v>
-      </c>
-      <c r="V76" s="15">
-        <v>6</v>
-      </c>
-      <c r="W76" s="19">
-        <v>6</v>
-      </c>
-      <c r="X76" s="16" t="s">
+      <c r="F76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="11">
+        <v>4</v>
+      </c>
+      <c r="I76" s="11">
+        <v>4</v>
+      </c>
+      <c r="J76" s="11">
+        <v>4</v>
+      </c>
+      <c r="K76" s="11">
+        <v>4</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="11">
+        <v>4</v>
+      </c>
+      <c r="O76" s="11">
+        <v>4</v>
+      </c>
+      <c r="P76" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>4</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="11">
+        <v>4</v>
+      </c>
+      <c r="U76" s="11">
+        <v>4</v>
+      </c>
+      <c r="V76" s="11">
+        <v>4</v>
+      </c>
+      <c r="W76" s="11">
+        <v>4</v>
+      </c>
+      <c r="X76" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G77" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H77" s="9">
-        <v>4</v>
-      </c>
-      <c r="I77" s="19">
-        <v>4</v>
-      </c>
-      <c r="J77" s="9">
-        <v>4</v>
-      </c>
-      <c r="K77" s="19">
-        <v>4</v>
-      </c>
-      <c r="L77" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M77" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N77" s="9">
-        <v>4</v>
-      </c>
-      <c r="O77" s="19">
-        <v>4</v>
-      </c>
-      <c r="P77" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q77" s="19">
-        <v>4</v>
-      </c>
-      <c r="R77" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S77" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T77" s="9">
-        <v>4</v>
-      </c>
-      <c r="U77" s="19">
-        <v>4</v>
-      </c>
-      <c r="V77" s="9">
-        <v>4</v>
-      </c>
-      <c r="W77" s="19">
-        <v>4</v>
-      </c>
-      <c r="X77" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G78" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H78" s="15">
-        <v>4</v>
-      </c>
-      <c r="I78" s="19">
-        <v>4</v>
-      </c>
-      <c r="J78" s="15">
-        <v>4</v>
-      </c>
-      <c r="K78" s="19">
-        <v>4</v>
-      </c>
-      <c r="L78" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M78" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N78" s="15">
-        <v>4</v>
-      </c>
-      <c r="O78" s="19">
-        <v>4</v>
-      </c>
-      <c r="P78" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q78" s="19">
-        <v>4</v>
-      </c>
-      <c r="R78" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S78" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T78" s="15">
-        <v>4</v>
-      </c>
-      <c r="U78" s="19">
-        <v>4</v>
-      </c>
-      <c r="V78" s="15">
-        <v>6</v>
-      </c>
-      <c r="W78" s="19">
-        <v>6</v>
-      </c>
-      <c r="X78" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M78" s="13"/>
+      <c r="N78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S78" s="13"/>
+      <c r="T78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G79" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H79" s="9">
-        <v>4</v>
-      </c>
-      <c r="I79" s="19">
-        <v>4</v>
-      </c>
-      <c r="J79" s="9">
-        <v>4</v>
-      </c>
-      <c r="K79" s="19">
-        <v>4</v>
-      </c>
-      <c r="L79" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M79" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N79" s="9">
-        <v>4</v>
-      </c>
-      <c r="O79" s="19">
-        <v>4</v>
-      </c>
-      <c r="P79" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q79" s="19">
-        <v>4</v>
-      </c>
-      <c r="R79" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S79" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T79" s="9">
-        <v>4</v>
-      </c>
-      <c r="U79" s="19">
-        <v>4</v>
-      </c>
-      <c r="V79" s="9">
-        <v>6</v>
-      </c>
-      <c r="W79" s="19">
-        <v>6</v>
-      </c>
-      <c r="X79" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W79" s="8"/>
     </row>
     <row r="80" spans="1:24">
-      <c r="A80" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G80" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H80" s="15">
-        <v>4</v>
-      </c>
-      <c r="I80" s="19">
-        <v>4</v>
-      </c>
-      <c r="J80" s="15">
-        <v>4</v>
-      </c>
-      <c r="K80" s="19">
-        <v>4</v>
-      </c>
-      <c r="L80" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M80" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N80" s="15">
-        <v>4</v>
-      </c>
-      <c r="O80" s="19">
-        <v>4</v>
-      </c>
-      <c r="P80" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="19">
-        <v>4</v>
-      </c>
-      <c r="R80" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S80" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T80" s="15">
-        <v>4</v>
-      </c>
-      <c r="U80" s="19">
-        <v>4</v>
-      </c>
-      <c r="V80" s="15">
-        <v>6</v>
-      </c>
-      <c r="W80" s="19">
-        <v>6</v>
-      </c>
-      <c r="X80" s="16" t="s">
-        <v>20</v>
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S80" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W80" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="9" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F81" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G81" s="19">
-        <v>59.881</v>
+        <v>121</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H81" s="9">
         <v>4</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="9">
         <v>4</v>
       </c>
       <c r="J81" s="9">
         <v>4</v>
       </c>
-      <c r="K81" s="19">
-        <v>4</v>
-      </c>
-      <c r="L81" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M81" s="19">
-        <v>59.881</v>
+      <c r="K81" s="9">
+        <v>4</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N81" s="9">
         <v>4</v>
       </c>
-      <c r="O81" s="19">
+      <c r="O81" s="9">
         <v>4</v>
       </c>
       <c r="P81" s="9">
         <v>4</v>
       </c>
-      <c r="Q81" s="19">
-        <v>4</v>
-      </c>
-      <c r="R81" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S81" s="19">
-        <v>63.993</v>
+      <c r="Q81" s="9">
+        <v>4</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T81" s="9">
         <v>4</v>
       </c>
-      <c r="U81" s="19">
+      <c r="U81" s="9">
         <v>4</v>
       </c>
       <c r="V81" s="9">
         <v>6</v>
       </c>
-      <c r="W81" s="19">
+      <c r="W81" s="9">
         <v>6</v>
       </c>
       <c r="X81" s="10" t="s">
@@ -4864,147 +4704,147 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="15" t="s">
+      <c r="A82" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G82" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="H82" s="15">
-        <v>4</v>
-      </c>
-      <c r="I82" s="19">
-        <v>4</v>
-      </c>
-      <c r="J82" s="15">
-        <v>4</v>
-      </c>
-      <c r="K82" s="19">
-        <v>4</v>
-      </c>
-      <c r="L82" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M82" s="19">
-        <v>59.881</v>
-      </c>
-      <c r="N82" s="15">
-        <v>4</v>
-      </c>
-      <c r="O82" s="19">
-        <v>4</v>
-      </c>
-      <c r="P82" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q82" s="19">
-        <v>4</v>
-      </c>
-      <c r="R82" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S82" s="19">
-        <v>63.993</v>
-      </c>
-      <c r="T82" s="15">
-        <v>4</v>
-      </c>
-      <c r="U82" s="19">
-        <v>4</v>
-      </c>
-      <c r="V82" s="15">
+      <c r="D82" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="11">
+        <v>4</v>
+      </c>
+      <c r="I82" s="11">
+        <v>4</v>
+      </c>
+      <c r="J82" s="11">
+        <v>4</v>
+      </c>
+      <c r="K82" s="11">
+        <v>4</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="11">
+        <v>4</v>
+      </c>
+      <c r="O82" s="11">
+        <v>4</v>
+      </c>
+      <c r="P82" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>4</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T82" s="11">
+        <v>4</v>
+      </c>
+      <c r="U82" s="11">
+        <v>4</v>
+      </c>
+      <c r="V82" s="11">
         <v>6</v>
       </c>
-      <c r="W82" s="19">
+      <c r="W82" s="11">
         <v>6</v>
       </c>
-      <c r="X82" s="16" t="s">
+      <c r="X82" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="9" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="G83" s="19">
-        <v>59.881</v>
+        <v>123</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H83" s="9">
         <v>4</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="9">
         <v>4</v>
       </c>
       <c r="J83" s="9">
         <v>4</v>
       </c>
-      <c r="K83" s="19">
-        <v>4</v>
-      </c>
-      <c r="L83" s="19">
-        <v>4.369</v>
-      </c>
-      <c r="M83" s="19">
-        <v>59.881</v>
+      <c r="K83" s="9">
+        <v>4</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="N83" s="9">
         <v>4</v>
       </c>
-      <c r="O83" s="19">
+      <c r="O83" s="9">
         <v>4</v>
       </c>
       <c r="P83" s="9">
         <v>4</v>
       </c>
-      <c r="Q83" s="19">
-        <v>4</v>
-      </c>
-      <c r="R83" s="19">
-        <v>20.817</v>
-      </c>
-      <c r="S83" s="19">
-        <v>63.993</v>
+      <c r="Q83" s="9">
+        <v>4</v>
+      </c>
+      <c r="R83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="T83" s="9">
         <v>4</v>
       </c>
-      <c r="U83" s="19">
+      <c r="U83" s="9">
         <v>4</v>
       </c>
       <c r="V83" s="9">
         <v>6</v>
       </c>
-      <c r="W83" s="19">
+      <c r="W83" s="9">
         <v>6</v>
       </c>
       <c r="X83" s="10" t="s">
@@ -5012,213 +4852,303 @@
       </c>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
+      <c r="A84" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="11">
+        <v>4</v>
+      </c>
+      <c r="I84" s="11">
+        <v>4</v>
+      </c>
+      <c r="J84" s="11">
+        <v>4</v>
+      </c>
+      <c r="K84" s="11">
+        <v>4</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="11">
+        <v>4</v>
+      </c>
+      <c r="O84" s="11">
+        <v>4</v>
+      </c>
+      <c r="P84" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>4</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T84" s="11">
+        <v>4</v>
+      </c>
+      <c r="U84" s="11">
+        <v>4</v>
+      </c>
+      <c r="V84" s="11">
+        <v>6</v>
+      </c>
+      <c r="W84" s="11">
+        <v>6</v>
+      </c>
+      <c r="X84" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M85" s="17"/>
-      <c r="N85" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
+      <c r="A85" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="9">
+        <v>4</v>
+      </c>
+      <c r="I85" s="9">
+        <v>4</v>
+      </c>
+      <c r="J85" s="9">
+        <v>4</v>
+      </c>
+      <c r="K85" s="9">
+        <v>4</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="9">
+        <v>4</v>
+      </c>
+      <c r="O85" s="9">
+        <v>4</v>
+      </c>
+      <c r="P85" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>4</v>
+      </c>
+      <c r="R85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T85" s="9">
+        <v>4</v>
+      </c>
+      <c r="U85" s="9">
+        <v>4</v>
+      </c>
+      <c r="V85" s="9">
+        <v>6</v>
+      </c>
+      <c r="W85" s="9">
+        <v>6</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
+      <c r="A86" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="11">
+        <v>4</v>
+      </c>
+      <c r="I86" s="11">
+        <v>4</v>
+      </c>
+      <c r="J86" s="11">
+        <v>4</v>
+      </c>
+      <c r="K86" s="11">
+        <v>4</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="11">
+        <v>4</v>
+      </c>
+      <c r="O86" s="11">
+        <v>4</v>
+      </c>
+      <c r="P86" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>4</v>
+      </c>
+      <c r="R86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T86" s="11">
+        <v>4</v>
+      </c>
+      <c r="U86" s="11">
+        <v>4</v>
+      </c>
+      <c r="V86" s="11">
+        <v>6</v>
+      </c>
+      <c r="W86" s="11">
+        <v>6</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P87" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-    </row>
-    <row r="88" spans="1:24">
-      <c r="A88" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="15" t="s">
+      <c r="A87" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D87" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H88" s="15">
-        <v>1</v>
-      </c>
-      <c r="I88" s="15">
-        <v>1</v>
-      </c>
-      <c r="J88" s="15">
-        <v>1</v>
-      </c>
-      <c r="K88" s="15">
-        <v>1</v>
-      </c>
-      <c r="L88" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="M88" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N88" s="15">
-        <v>1</v>
-      </c>
-      <c r="O88" s="15">
-        <v>1</v>
-      </c>
-      <c r="P88" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="15">
-        <v>1</v>
-      </c>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="16" t="s">
+      <c r="F87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="9">
+        <v>4</v>
+      </c>
+      <c r="I87" s="9">
+        <v>4</v>
+      </c>
+      <c r="J87" s="9">
+        <v>4</v>
+      </c>
+      <c r="K87" s="9">
+        <v>4</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="9">
+        <v>4</v>
+      </c>
+      <c r="O87" s="9">
+        <v>4</v>
+      </c>
+      <c r="P87" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>4</v>
+      </c>
+      <c r="R87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T87" s="9">
+        <v>4</v>
+      </c>
+      <c r="U87" s="9">
+        <v>4</v>
+      </c>
+      <c r="V87" s="9">
+        <v>6</v>
+      </c>
+      <c r="W87" s="9">
+        <v>6</v>
+      </c>
+      <c r="X87" s="10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="114">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -5317,18 +5247,22 @@
     <mergeCell ref="T67:U67"/>
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="A65:E68"/>
-    <mergeCell ref="F84:K84"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L84:Q84"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R84:W88"/>
-    <mergeCell ref="A84:E87"/>
+    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:M79"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R77:W77"/>
+    <mergeCell ref="R78:S79"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="A77:E80"/>
   </mergeCells>
 </worksheet>
 </file>